--- a/C4/Data.xlsx
+++ b/C4/Data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
     <sheet name="Q5" sheetId="2" r:id="rId2"/>
     <sheet name="Q6" sheetId="3" r:id="rId3"/>
     <sheet name="Q6+" sheetId="4" r:id="rId4"/>
+    <sheet name="Q7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="37">
   <si>
     <t>A</t>
   </si>
@@ -664,7 +665,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1164,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,8 +2405,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -2943,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,4 +4252,1378 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <f t="shared" ref="E2:E17" si="0">INT(OR(AND(NOT(C2),D2),AND(C2,NOT(D2),A2)))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F17" si="1">INT(OR(AND(A2,NOT(D2),NOT(C2)),AND(NOT(A2),D2,NOT(C2))))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G17" si="2">INT(OR(AND(NOT(C2),D2),AND(NOT(D2),B2)))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H17" si="3">INT(AND(NOT(B2),D2))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <f>INT(OR(AND(NOT(F22),G22),AND(NOT(G22),D22)))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <f>INT(AND(NOT(D22),G22))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" ref="H23" si="4">INT(OR(AND(NOT(F23),G23),AND(NOT(G23),D23)))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" ref="I23:I33" si="5">INT(AND(NOT(D23),G23))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <f>INT(OR(AND(NOT(F24),G24),AND(NOT(G24),D24)))</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <f>INT(AND(NOT(D24),G24))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <f>INT(OR(AND(NOT(F25),G25),AND(NOT(G25),D25)))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <f>INT(AND(NOT(D25),G25))</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <f>INT(OR(AND(NOT(F26),G26),AND(NOT(G26),D26)))</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
+        <f>INT(AND(NOT(D26),G26))</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <f>INT(IF(F25,AND(G25,E26),J25))</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>0</v>
+      </c>
+      <c r="B27" s="34">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <f>C26</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <f>F26</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <f>G26</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <f>INT(OR(AND(NOT(F27),G27),AND(NOT(G27),D27)))</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="15">
+        <f>INT(AND(NOT(D27),G27))</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <f>J26</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15">
+        <f>INT(OR(AND(NOT(F28),G28),AND(NOT(G28),D28)))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <f>INT(AND(NOT(D28),G28))</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <f>INT(IF(F26,AND(G26,E28),J26))</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
+        <f>C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <f>E28</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <f>F28</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <f>G28</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <f>INT(OR(AND(NOT(F29),G29),AND(NOT(G29),D29)))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="15">
+        <f>INT(AND(NOT(D29),G29))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f>J28</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <f>INT(OR(AND(NOT(F30),G30),AND(NOT(G30),D30)))</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <f>INT(AND(NOT(D30),G30))</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <f>INT(IF(F28,AND(G28,E30),J28))</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <f>INT(OR(AND(NOT(F31),G31),AND(NOT(G31),D31)))</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="15">
+        <f>INT(AND(NOT(D31),G31))</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <f>INT(IF(F30,AND(G30,E31),J30))</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>0</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
+        <f>INT(OR(AND(NOT(F32),G32),AND(NOT(G32),D32)))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <f>INT(AND(NOT(D32),G32))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <f>INT(IF(F31,AND(G31,E32),J31))</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <f>INT(OR(AND(NOT(F33),G33),AND(NOT(G33),D33)))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <f>INT(AND(NOT(D33),G33))</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <f>INT(IF(F32,AND(G32,E33),J32))</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>0</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15">
+        <f>INT(OR(AND(NOT(F34),G34),AND(NOT(G34),D34)))</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="15">
+        <f>INT(AND(NOT(D34),G34))</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <f>INT(IF(F33,AND(G33,E34),J33))</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <f>INT(OR(AND(NOT(F35),G35),AND(NOT(G35),D35)))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <f>INT(AND(NOT(D35),G35))</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f>INT(IF(F34,AND(G34,E35),J34))</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>0</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <f>INT(OR(AND(NOT(F36),G36),AND(NOT(G36),D36)))</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <f>INT(AND(NOT(D36),G36))</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <f>INT(IF(F35,AND(G35,E36),J35))</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
+        <f>C36</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <f>E36</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <f>F36</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <f>G36</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <f>INT(OR(AND(NOT(F37),G37),AND(NOT(G37),D37)))</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="15">
+        <f>INT(AND(NOT(D37),G37))</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <f>J36</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>0</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <f>INT(OR(AND(NOT(F38),G38),AND(NOT(G38),D38)))</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
+        <f>INT(AND(NOT(D38),G38))</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f>INT(IF(F36,AND(G36,E38),J36))</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/C4/Data.xlsx
+++ b/C4/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Q6" sheetId="3" r:id="rId3"/>
     <sheet name="Q6+" sheetId="4" r:id="rId4"/>
     <sheet name="Q7" sheetId="5" r:id="rId5"/>
+    <sheet name="Q7 test" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="68">
   <si>
     <t>A</t>
   </si>
@@ -140,12 +141,105 @@
   <si>
     <t>10N -&gt; 10</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SDI</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>SDI -&gt; S -&gt; T -&gt; N -&gt; SDO</t>
+  </si>
+  <si>
+    <t>Comfirm reset, N</t>
+  </si>
+  <si>
+    <t>Comfirm reset, T</t>
+  </si>
+  <si>
+    <t>Comfirm reset, S</t>
+  </si>
+  <si>
+    <t>State 00 -&gt; 00, N</t>
+  </si>
+  <si>
+    <t>State 00 -&gt; 00, T</t>
+  </si>
+  <si>
+    <t>State 00 -&gt; 00, S</t>
+  </si>
+  <si>
+    <t>State 00 -&gt; 01, N</t>
+  </si>
+  <si>
+    <t>State 00 -&gt; 01, T</t>
+  </si>
+  <si>
+    <t>State 00 -&gt; 01, S</t>
+  </si>
+  <si>
+    <t>State 01 -&gt; 10, N</t>
+  </si>
+  <si>
+    <t>State 01 -&gt; 10, T</t>
+  </si>
+  <si>
+    <t>State 01 -&gt; 10, S</t>
+  </si>
+  <si>
+    <t>State 01 -&gt; 11, N</t>
+  </si>
+  <si>
+    <t>State 01 -&gt; 11, T</t>
+  </si>
+  <si>
+    <t>State 01 -&gt; 11, S</t>
+  </si>
+  <si>
+    <t>State 10 -&gt; 00, N</t>
+  </si>
+  <si>
+    <t>Test sequence, SDI -&gt; S -&gt; T -&gt; N -&gt; SDO</t>
+  </si>
+  <si>
+    <t>State 10 -&gt; 00, T</t>
+  </si>
+  <si>
+    <t>State 10 -&gt; 00, S</t>
+  </si>
+  <si>
+    <t>State 10 -&gt; 10, N</t>
+  </si>
+  <si>
+    <t>State 10 -&gt; 10, T</t>
+  </si>
+  <si>
+    <t>State 10 -&gt; 10, S</t>
+  </si>
+  <si>
+    <t>State 11 -&gt; 00, N</t>
+  </si>
+  <si>
+    <t>State 11 -&gt; 00, T</t>
+  </si>
+  <si>
+    <t>State 11 -&gt; 00, S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +253,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -282,11 +388,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -357,6 +563,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,14 +598,127 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -845,25 +1180,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="26" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="11" t="s">
         <v>19</v>
       </c>
@@ -1676,31 +2011,31 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="26" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="27"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="21" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +2610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2309,14 +2644,14 @@
       <c r="J1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -2348,13 +2683,13 @@
       <c r="J2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -2526,29 +2861,29 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="26" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="21" t="s">
         <v>19</v>
       </c>
@@ -3522,35 +3857,35 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="26" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="27"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="21" t="s">
         <v>19</v>
       </c>
@@ -3650,11 +3985,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" ref="H23:H34" si="4">INT(OR(AND(NOT(F23),G23),AND(NOT(G23),D23)))</f>
+        <f t="shared" ref="H23" si="4">INT(OR(AND(NOT(F23),G23),AND(NOT(G23),D23)))</f>
         <v>0</v>
       </c>
       <c r="I23" s="15">
-        <f t="shared" ref="I23:I33" si="5">INT(AND(NOT(D23),G23))</f>
+        <f t="shared" ref="I23" si="5">INT(AND(NOT(D23),G23))</f>
         <v>0</v>
       </c>
       <c r="J23" s="2">
@@ -3687,18 +4022,18 @@
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <f>INT(OR(AND(NOT(F24),G24),AND(NOT(G24),D24)))</f>
+        <f t="shared" ref="H24:H38" si="6">INT(OR(AND(NOT(F24),G24),AND(NOT(G24),D24)))</f>
         <v>1</v>
       </c>
       <c r="I24" s="15">
-        <f>INT(AND(NOT(D24),G24))</f>
+        <f t="shared" ref="I24:I38" si="7">INT(AND(NOT(D24),G24))</f>
         <v>0</v>
       </c>
       <c r="J24" s="2">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3725,11 +4060,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="15">
-        <f>INT(OR(AND(NOT(F25),G25),AND(NOT(G25),D25)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I25" s="15">
-        <f>INT(AND(NOT(D25),G25))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J25" s="2">
@@ -3762,11 +4097,11 @@
         <v>1</v>
       </c>
       <c r="H26" s="15">
-        <f>INT(OR(AND(NOT(F26),G26),AND(NOT(G26),D26)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I26" s="15">
-        <f>INT(AND(NOT(D26),G26))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J26" s="2">
@@ -3781,7 +4116,7 @@
       <c r="A27" s="8">
         <v>0</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="31">
         <v>0</v>
       </c>
       <c r="C27" s="8">
@@ -3803,18 +4138,18 @@
         <v>1</v>
       </c>
       <c r="H27" s="15">
-        <f>INT(OR(AND(NOT(F27),G27),AND(NOT(G27),D27)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I27" s="15">
-        <f>INT(AND(NOT(D27),G27))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J27" s="2">
         <f>J26</f>
         <v>0</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3841,11 +4176,11 @@
         <v>1</v>
       </c>
       <c r="H28" s="15">
-        <f>INT(OR(AND(NOT(F28),G28),AND(NOT(G28),D28)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I28" s="15">
-        <f>INT(AND(NOT(D28),G28))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J28" s="2">
@@ -3883,18 +4218,18 @@
         <v>1</v>
       </c>
       <c r="H29" s="15">
-        <f>INT(OR(AND(NOT(F29),G29),AND(NOT(G29),D29)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I29" s="15">
-        <f>INT(AND(NOT(D29),G29))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J29" s="2">
         <f>J28</f>
         <v>0</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3921,11 +4256,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="15">
-        <f>INT(OR(AND(NOT(F30),G30),AND(NOT(G30),D30)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="15">
-        <f>INT(AND(NOT(D30),G30))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J30" s="2">
@@ -3959,15 +4294,15 @@
         <v>1</v>
       </c>
       <c r="H31" s="15">
-        <f>INT(OR(AND(NOT(F31),G31),AND(NOT(G31),D31)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I31" s="15">
-        <f>INT(AND(NOT(D31),G31))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J31" s="2">
-        <f>INT(IF(F30,AND(G30,E31),J30))</f>
+        <f t="shared" ref="J31:J36" si="8">INT(IF(F30,AND(G30,E31),J30))</f>
         <v>1</v>
       </c>
       <c r="K31" s="22" t="s">
@@ -3997,15 +4332,15 @@
         <v>1</v>
       </c>
       <c r="H32" s="15">
-        <f>INT(OR(AND(NOT(F32),G32),AND(NOT(G32),D32)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I32" s="15">
-        <f>INT(AND(NOT(D32),G32))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J32" s="2">
-        <f>INT(IF(F31,AND(G31,E32),J31))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K32" s="22" t="s">
@@ -4035,15 +4370,15 @@
         <v>0</v>
       </c>
       <c r="H33" s="15">
-        <f>INT(OR(AND(NOT(F33),G33),AND(NOT(G33),D33)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I33" s="15">
-        <f>INT(AND(NOT(D33),G33))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <f>INT(IF(F32,AND(G32,E33),J32))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K33" s="22" t="s">
@@ -4073,15 +4408,15 @@
         <v>1</v>
       </c>
       <c r="H34" s="15">
-        <f>INT(OR(AND(NOT(F34),G34),AND(NOT(G34),D34)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I34" s="15">
-        <f>INT(AND(NOT(D34),G34))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J34" s="2">
-        <f>INT(IF(F33,AND(G33,E34),J33))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K34" s="22" t="s">
@@ -4111,15 +4446,15 @@
         <v>0</v>
       </c>
       <c r="H35" s="15">
-        <f>INT(OR(AND(NOT(F35),G35),AND(NOT(G35),D35)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I35" s="15">
-        <f>INT(AND(NOT(D35),G35))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <f>INT(IF(F34,AND(G34,E35),J34))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K35" s="22" t="s">
@@ -4149,15 +4484,15 @@
         <v>0</v>
       </c>
       <c r="H36" s="15">
-        <f>INT(OR(AND(NOT(F36),G36),AND(NOT(G36),D36)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I36" s="15">
-        <f>INT(AND(NOT(D36),G36))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <f>INT(IF(F35,AND(G35,E36),J35))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K36" s="22" t="s">
@@ -4191,18 +4526,18 @@
         <v>0</v>
       </c>
       <c r="H37" s="15">
-        <f>INT(OR(AND(NOT(F37),G37),AND(NOT(G37),D37)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I37" s="15">
-        <f>INT(AND(NOT(D37),G37))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J37" s="2">
         <f>J36</f>
         <v>0</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4229,11 +4564,11 @@
         <v>0</v>
       </c>
       <c r="H38" s="15">
-        <f>INT(OR(AND(NOT(F38),G38),AND(NOT(G38),D38)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I38" s="15">
-        <f>INT(AND(NOT(D38),G38))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J38" s="2">
@@ -4256,50 +4591,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="9.140625" style="29"/>
+    <col min="21" max="23" width="9.140625" style="29"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4317,19 +4657,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="16">
-        <f t="shared" ref="E2:E17" si="0">INT(OR(AND(NOT(C2),D2),AND(C2,NOT(D2),A2)))</f>
+        <f>INT(OR(AND(NOT(C2),D2),AND(C2,NOT(D2),A2)))</f>
         <v>0</v>
       </c>
       <c r="F2" s="17">
-        <f t="shared" ref="F2:F17" si="1">INT(OR(AND(A2,NOT(D2),NOT(C2)),AND(NOT(A2),D2,NOT(C2))))</f>
+        <f>INT(OR(AND(A2,NOT(D2),NOT(C2)),AND(NOT(A2),D2,NOT(C2))))</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G17" si="2">INT(OR(AND(NOT(C2),D2),AND(NOT(D2),B2)))</f>
+        <f>INT(OR(AND(NOT(C2),D2),AND(NOT(D2),B2)))</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H17" si="3">INT(AND(NOT(B2),D2))</f>
+        <f>INT(AND(NOT(B2),D2))</f>
         <v>0</v>
       </c>
       <c r="I2" s="25"/>
@@ -4360,19 +4700,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C3),D3),AND(C3,NOT(D3),A3)))</f>
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A3,NOT(D3),NOT(C3)),AND(NOT(A3),D3,NOT(C3))))</f>
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C3),D3),AND(NOT(D3),B3)))</f>
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B3),D3))</f>
         <v>0</v>
       </c>
       <c r="I3" s="25"/>
@@ -4403,19 +4743,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C4),D4),AND(C4,NOT(D4),A4)))</f>
         <v>0</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A4,NOT(D4),NOT(C4)),AND(NOT(A4),D4,NOT(C4))))</f>
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C4),D4),AND(NOT(D4),B4)))</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B4),D4))</f>
         <v>0</v>
       </c>
       <c r="I4" s="25"/>
@@ -4446,19 +4786,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C5),D5),AND(C5,NOT(D5),A5)))</f>
         <v>0</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A5,NOT(D5),NOT(C5)),AND(NOT(A5),D5,NOT(C5))))</f>
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C5),D5),AND(NOT(D5),B5)))</f>
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B5),D5))</f>
         <v>0</v>
       </c>
       <c r="I5" s="25"/>
@@ -4489,19 +4829,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C6),D6),AND(C6,NOT(D6),A6)))</f>
         <v>1</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A6,NOT(D6),NOT(C6)),AND(NOT(A6),D6,NOT(C6))))</f>
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C6),D6),AND(NOT(D6),B6)))</f>
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B6),D6))</f>
         <v>1</v>
       </c>
       <c r="I6" s="25"/>
@@ -4524,19 +4864,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C7),D7),AND(C7,NOT(D7),A7)))</f>
         <v>1</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A7,NOT(D7),NOT(C7)),AND(NOT(A7),D7,NOT(C7))))</f>
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C7),D7),AND(NOT(D7),B7)))</f>
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B7),D7))</f>
         <v>0</v>
       </c>
       <c r="I7" s="25"/>
@@ -4559,19 +4899,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C8),D8),AND(C8,NOT(D8),A8)))</f>
         <v>1</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A8,NOT(D8),NOT(C8)),AND(NOT(A8),D8,NOT(C8))))</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C8),D8),AND(NOT(D8),B8)))</f>
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B8),D8))</f>
         <v>1</v>
       </c>
       <c r="I8" s="25"/>
@@ -4594,19 +4934,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C9),D9),AND(C9,NOT(D9),A9)))</f>
         <v>1</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A9,NOT(D9),NOT(C9)),AND(NOT(A9),D9,NOT(C9))))</f>
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C9),D9),AND(NOT(D9),B9)))</f>
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B9),D9))</f>
         <v>0</v>
       </c>
       <c r="I9" s="25"/>
@@ -4629,19 +4969,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C10),D10),AND(C10,NOT(D10),A10)))</f>
         <v>0</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A10,NOT(D10),NOT(C10)),AND(NOT(A10),D10,NOT(C10))))</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C10),D10),AND(NOT(D10),B10)))</f>
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B10),D10))</f>
         <v>0</v>
       </c>
       <c r="I10" s="25"/>
@@ -4664,19 +5004,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C11),D11),AND(C11,NOT(D11),A11)))</f>
         <v>0</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A11,NOT(D11),NOT(C11)),AND(NOT(A11),D11,NOT(C11))))</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C11),D11),AND(NOT(D11),B11)))</f>
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B11),D11))</f>
         <v>0</v>
       </c>
       <c r="I11" s="25"/>
@@ -4699,19 +5039,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C12),D12),AND(C12,NOT(D12),A12)))</f>
         <v>1</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A12,NOT(D12),NOT(C12)),AND(NOT(A12),D12,NOT(C12))))</f>
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C12),D12),AND(NOT(D12),B12)))</f>
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B12),D12))</f>
         <v>0</v>
       </c>
       <c r="I12" s="25"/>
@@ -4734,19 +5074,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C13),D13),AND(C13,NOT(D13),A13)))</f>
         <v>1</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A13,NOT(D13),NOT(C13)),AND(NOT(A13),D13,NOT(C13))))</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C13),D13),AND(NOT(D13),B13)))</f>
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B13),D13))</f>
         <v>0</v>
       </c>
       <c r="I13" s="25"/>
@@ -4769,19 +5109,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C14),D14),AND(C14,NOT(D14),A14)))</f>
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A14,NOT(D14),NOT(C14)),AND(NOT(A14),D14,NOT(C14))))</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C14),D14),AND(NOT(D14),B14)))</f>
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B14),D14))</f>
         <v>1</v>
       </c>
       <c r="I14" s="25"/>
@@ -4804,19 +5144,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C15),D15),AND(C15,NOT(D15),A15)))</f>
         <v>0</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A15,NOT(D15),NOT(C15)),AND(NOT(A15),D15,NOT(C15))))</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C15),D15),AND(NOT(D15),B15)))</f>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B15),D15))</f>
         <v>0</v>
       </c>
       <c r="I15" s="25"/>
@@ -4839,19 +5179,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C16),D16),AND(C16,NOT(D16),A16)))</f>
         <v>0</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A16,NOT(D16),NOT(C16)),AND(NOT(A16),D16,NOT(C16))))</f>
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C16),D16),AND(NOT(D16),B16)))</f>
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B16),D16))</f>
         <v>1</v>
       </c>
       <c r="I16" s="25"/>
@@ -4874,19 +5214,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="19">
-        <f t="shared" si="0"/>
+        <f>INT(OR(AND(NOT(C17),D17),AND(C17,NOT(D17),A17)))</f>
         <v>0</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="1"/>
+        <f>INT(OR(AND(A17,NOT(D17),NOT(C17)),AND(NOT(A17),D17,NOT(C17))))</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="2"/>
+        <f>INT(OR(AND(NOT(C17),D17),AND(NOT(D17),B17)))</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="3"/>
+        <f>INT(AND(NOT(B17),D17))</f>
         <v>0</v>
       </c>
       <c r="I17" s="25"/>
@@ -4895,734 +5235,2101 @@
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>1</v>
+      </c>
+      <c r="B5" s="52">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52">
+        <v>0</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0</v>
+      </c>
+      <c r="H5" s="53">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52">
+        <f>L5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="54">
+        <f>IF(B5,0,IF(C5="↑",IF(G5,H5,INT(OR(AND(NOT(J4),K4),AND(J4,NOT(K4),D5)))),J4))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="54">
+        <f>IF(B5,0,IF(C5="↑",IF(G5,J4,INT(OR(AND(D5,NOT(K4),NOT(J4)),AND(NOT(D5),K4,NOT(J4))))),K4))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="52">
+        <f>IF(B5,0,IF(C5="↑",IF(G5,K4,INT(IF(J4,AND(K4,F5),L4))),L4))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="54">
+        <f>INT(OR(AND(NOT(J5),K5),AND(NOT(K5),E5)))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="54">
+        <f>INT(AND(NOT(E5),K5))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="57">
+        <v>0</v>
+      </c>
+      <c r="C6" s="57">
+        <v>0</v>
+      </c>
+      <c r="D6" s="57">
+        <v>0</v>
+      </c>
+      <c r="E6" s="57">
+        <v>0</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0</v>
+      </c>
+      <c r="G6" s="57">
+        <v>0</v>
+      </c>
+      <c r="H6" s="58">
+        <v>0</v>
+      </c>
+      <c r="I6" s="57">
+        <f>L6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <f>IF(B6,0,IF(C6="↑",IF(G6,H6,INT(OR(AND(NOT(J5),K5),AND(J5,NOT(K5),D6)))),J5))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="59">
+        <f>IF(B6,0,IF(C6="↑",IF(G6,J5,INT(OR(AND(D6,NOT(K5),NOT(J5)),AND(NOT(D6),K5,NOT(J5))))),K5))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="57">
+        <f>IF(B6,0,IF(C6="↑",IF(G6,K5,INT(IF(J5,AND(K5,F6),L5))),L5))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="59">
+        <f>INT(OR(AND(NOT(J6),K6),AND(NOT(K6),E6)))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="59">
+        <f>INT(AND(NOT(E6),K6))</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" ref="A7:A40" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>L7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <f>IF(B7,0,IF(C7="↑",IF(G7,H7,INT(OR(AND(NOT(J6),K6),AND(J6,NOT(K6),D7)))),J6))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <f>IF(B7,0,IF(C7="↑",IF(G7,J6,INT(OR(AND(D7,NOT(K6),NOT(J6)),AND(NOT(D7),K6,NOT(J6))))),K6))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <f>IF(B7,0,IF(C7="↑",IF(G7,K6,INT(IF(J6,AND(K6,F7),L6))),L6))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <f>INT(OR(AND(NOT(J7),K7),AND(NOT(K7),E7)))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <f>INT(AND(NOT(E7),K7))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="62">
+        <v>0</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="62">
+        <v>0</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0</v>
+      </c>
+      <c r="F8" s="62">
+        <v>0</v>
+      </c>
+      <c r="G8" s="62">
+        <v>1</v>
+      </c>
+      <c r="H8" s="64">
+        <v>0</v>
+      </c>
+      <c r="I8" s="62">
+        <f>L8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="65">
+        <f>IF(B8,0,IF(C8="↑",IF(G8,H8,INT(OR(AND(NOT(J7),K7),AND(J7,NOT(K7),D8)))),J7))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="65">
+        <f>IF(B8,0,IF(C8="↑",IF(G8,J7,INT(OR(AND(D8,NOT(K7),NOT(J7)),AND(NOT(D8),K7,NOT(J7))))),K7))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="62">
+        <f>IF(B8,0,IF(C8="↑",IF(G8,K7,INT(IF(J7,AND(K7,F8),L7))),L7))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="65">
+        <f>INT(OR(AND(NOT(J8),K8),AND(NOT(K8),E8)))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="65">
+        <f>INT(AND(NOT(E8),K8))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="B9" s="67">
+        <v>0</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67">
+        <v>0</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0</v>
+      </c>
+      <c r="H9" s="56">
+        <v>0</v>
+      </c>
+      <c r="I9" s="57">
+        <f>L9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
+        <f>IF(B9,0,IF(C9="↑",IF(G9,H9,INT(OR(AND(NOT(J8),K8),AND(J8,NOT(K8),D9)))),J8))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="59">
+        <f>IF(B9,0,IF(C9="↑",IF(G9,J8,INT(OR(AND(D9,NOT(K8),NOT(J8)),AND(NOT(D9),K8,NOT(J8))))),K8))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="57">
+        <f>IF(B9,0,IF(C9="↑",IF(G9,K8,INT(IF(J8,AND(K8,F9),L8))),L8))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="59">
+        <f>INT(OR(AND(NOT(J9),K9),AND(NOT(K9),E9)))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="59">
+        <f>INT(AND(NOT(E9),K9))</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="26" t="s">
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f>L10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f>IF(B10,0,IF(C10="↑",IF(G10,H10,INT(OR(AND(NOT(J9),K9),AND(J9,NOT(K9),D10)))),J9))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <f>IF(B10,0,IF(C10="↑",IF(G10,J9,INT(OR(AND(D10,NOT(K9),NOT(J9)),AND(NOT(D10),K9,NOT(J9))))),K9))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <f>IF(B10,0,IF(C10="↑",IF(G10,K9,INT(IF(J9,AND(K9,F10),L9))),L9))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <f>INT(OR(AND(NOT(J10),K10),AND(NOT(K10),E10)))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <f>INT(AND(NOT(E10),K10))</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f>L11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f>IF(B11,0,IF(C11="↑",IF(G11,H11,INT(OR(AND(NOT(J10),K10),AND(J10,NOT(K10),D11)))),J10))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <f>IF(B11,0,IF(C11="↑",IF(G11,J10,INT(OR(AND(D11,NOT(K10),NOT(J10)),AND(NOT(D11),K10,NOT(J10))))),K10))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <f>IF(B11,0,IF(C11="↑",IF(G11,K10,INT(IF(J10,AND(K10,F11),L10))),L10))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <f>INT(OR(AND(NOT(J11),K11),AND(NOT(K11),E11)))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <f>INT(AND(NOT(E11),K11))</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="61">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="70">
+        <v>0</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="70">
+        <v>0</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0</v>
+      </c>
+      <c r="F12" s="70">
+        <v>0</v>
+      </c>
+      <c r="G12" s="70">
+        <v>1</v>
+      </c>
+      <c r="H12" s="61">
+        <v>0</v>
+      </c>
+      <c r="I12" s="62">
+        <f>L12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="65">
+        <f>IF(B12,0,IF(C12="↑",IF(G12,H12,INT(OR(AND(NOT(J11),K11),AND(J11,NOT(K11),D12)))),J11))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="65">
+        <f>IF(B12,0,IF(C12="↑",IF(G12,J11,INT(OR(AND(D12,NOT(K11),NOT(J11)),AND(NOT(D12),K11,NOT(J11))))),K11))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="62">
+        <f>IF(B12,0,IF(C12="↑",IF(G12,K11,INT(IF(J11,AND(K11,F12),L11))),L11))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="65">
+        <f>INT(OR(AND(NOT(J12),K12),AND(NOT(K12),E12)))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="65">
+        <f>INT(AND(NOT(E12),K12))</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="71"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="21" t="s">
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f>L13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <f>IF(B13,0,IF(C13="↑",IF(G13,H13,INT(OR(AND(NOT(J12),K12),AND(J12,NOT(K12),D13)))),J12))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <f>IF(B13,0,IF(C13="↑",IF(G13,J12,INT(OR(AND(D13,NOT(K12),NOT(J12)),AND(NOT(D13),K12,NOT(J12))))),K12))</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <f>IF(B13,0,IF(C13="↑",IF(G13,K12,INT(IF(J12,AND(K12,F13),L12))),L12))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <f>INT(OR(AND(NOT(J13),K13),AND(NOT(K13),E13)))</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="15">
+        <f>INT(AND(NOT(E13),K13))</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>L14</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <f>IF(B14,0,IF(C14="↑",IF(G14,H14,INT(OR(AND(NOT(J13),K13),AND(J13,NOT(K13),D14)))),J13))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f>IF(B14,0,IF(C14="↑",IF(G14,J13,INT(OR(AND(D14,NOT(K13),NOT(J13)),AND(NOT(D14),K13,NOT(J13))))),K13))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <f>IF(B14,0,IF(C14="↑",IF(G14,K13,INT(IF(J13,AND(K13,F14),L13))),L13))</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="15">
+        <f>INT(OR(AND(NOT(J14),K14),AND(NOT(K14),E14)))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f>INT(AND(NOT(E14),K14))</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <f>L15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f>IF(B15,0,IF(C15="↑",IF(G15,H15,INT(OR(AND(NOT(J14),K14),AND(J14,NOT(K14),D15)))),J14))</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <f>IF(B15,0,IF(C15="↑",IF(G15,J14,INT(OR(AND(D15,NOT(K14),NOT(J14)),AND(NOT(D15),K14,NOT(J14))))),K14))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <f>IF(B15,0,IF(C15="↑",IF(G15,K14,INT(IF(J14,AND(K14,F15),L14))),L14))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <f>INT(OR(AND(NOT(J15),K15),AND(NOT(K15),E15)))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <f>INT(AND(NOT(E15),K15))</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="61">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="70">
+        <v>0</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="70">
+        <v>0</v>
+      </c>
+      <c r="E16" s="62">
+        <v>0</v>
+      </c>
+      <c r="F16" s="70">
+        <v>0</v>
+      </c>
+      <c r="G16" s="70">
+        <v>1</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0</v>
+      </c>
+      <c r="I16" s="62">
+        <f>L16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="65">
+        <f>IF(B16,0,IF(C16="↑",IF(G16,H16,INT(OR(AND(NOT(J15),K15),AND(J15,NOT(K15),D16)))),J15))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="65">
+        <f>IF(B16,0,IF(C16="↑",IF(G16,J15,INT(OR(AND(D16,NOT(K15),NOT(J15)),AND(NOT(D16),K15,NOT(J15))))),K15))</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="62">
+        <f>IF(B16,0,IF(C16="↑",IF(G16,K15,INT(IF(J15,AND(K15,F16),L15))),L15))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="65">
+        <f>INT(OR(AND(NOT(J16),K16),AND(NOT(K16),E16)))</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="65">
+        <f>INT(AND(NOT(E16),K16))</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="66"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f>L17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <f>IF(B17,0,IF(C17="↑",IF(G17,H17,INT(OR(AND(NOT(J16),K16),AND(J16,NOT(K16),D17)))),J16))</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <f>IF(B17,0,IF(C17="↑",IF(G17,J16,INT(OR(AND(D17,NOT(K16),NOT(J16)),AND(NOT(D17),K16,NOT(J16))))),K16))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <f>IF(B17,0,IF(C17="↑",IF(G17,K16,INT(IF(J16,AND(K16,F17),L16))),L16))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <f>INT(OR(AND(NOT(J17),K17),AND(NOT(K17),E17)))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
+        <f>INT(AND(NOT(E17),K17))</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f>L18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <f>IF(B18,0,IF(C18="↑",IF(G18,H18,INT(OR(AND(NOT(J17),K17),AND(J17,NOT(K17),D18)))),J17))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <f>IF(B18,0,IF(C18="↑",IF(G18,J17,INT(OR(AND(D18,NOT(K17),NOT(J17)),AND(NOT(D18),K17,NOT(J17))))),K17))</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <f>IF(B18,0,IF(C18="↑",IF(G18,K17,INT(IF(J17,AND(K17,F18),L17))),L17))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <f>INT(OR(AND(NOT(J18),K18),AND(NOT(K18),E18)))</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="15">
+        <f>INT(AND(NOT(E18),K18))</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <f>L19</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="15">
+        <f>IF(B19,0,IF(C19="↑",IF(G19,H19,INT(OR(AND(NOT(J18),K18),AND(J18,NOT(K18),D19)))),J18))</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="15">
+        <f>IF(B19,0,IF(C19="↑",IF(G19,J18,INT(OR(AND(D19,NOT(K18),NOT(J18)),AND(NOT(D19),K18,NOT(J18))))),K18))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <f>IF(B19,0,IF(C19="↑",IF(G19,K18,INT(IF(J18,AND(K18,F19),L18))),L18))</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <f>INT(OR(AND(NOT(J19),K19),AND(NOT(K19),E19)))</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <f>INT(AND(NOT(E19),K19))</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="64">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="70">
+        <v>0</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="70">
+        <v>0</v>
+      </c>
+      <c r="E20" s="62">
+        <v>0</v>
+      </c>
+      <c r="F20" s="62">
+        <v>0</v>
+      </c>
+      <c r="G20" s="62">
+        <v>1</v>
+      </c>
+      <c r="H20" s="64">
+        <v>0</v>
+      </c>
+      <c r="I20" s="62">
+        <f>L20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="65">
+        <f>IF(B20,0,IF(C20="↑",IF(G20,H20,INT(OR(AND(NOT(J19),K19),AND(J19,NOT(K19),D20)))),J19))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="65">
+        <f>IF(B20,0,IF(C20="↑",IF(G20,J19,INT(OR(AND(D20,NOT(K19),NOT(J19)),AND(NOT(D20),K19,NOT(J19))))),K19))</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="62">
+        <f>IF(B20,0,IF(C20="↑",IF(G20,K19,INT(IF(J19,AND(K19,F20),L19))),L19))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="65">
+        <f>INT(OR(AND(NOT(J20),K20),AND(NOT(K20),E20)))</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="65">
+        <f>INT(AND(NOT(E20),K20))</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="66"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="56">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="67">
+        <v>0</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="67">
+        <v>0</v>
+      </c>
+      <c r="E21" s="67">
+        <v>0</v>
+      </c>
+      <c r="F21" s="67">
+        <v>0</v>
+      </c>
+      <c r="G21" s="67">
+        <v>0</v>
+      </c>
+      <c r="H21" s="56">
+        <v>0</v>
+      </c>
+      <c r="I21" s="57">
+        <f t="shared" ref="I21:I28" si="1">L21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="59">
+        <f t="shared" ref="J21:J28" si="2">IF(B21,0,IF(C21="↑",IF(G21,H21,INT(OR(AND(NOT(J20),K20),AND(J20,NOT(K20),D21)))),J20))</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="59">
+        <f t="shared" ref="K21:K28" si="3">IF(B21,0,IF(C21="↑",IF(G21,J20,INT(OR(AND(D21,NOT(K20),NOT(J20)),AND(NOT(D21),K20,NOT(J20))))),K20))</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="57">
+        <f t="shared" ref="L21:L28" si="4">IF(B21,0,IF(C21="↑",IF(G21,K20,INT(IF(J20,AND(K20,F21),L20))),L20))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="59">
+        <f t="shared" ref="M21:M28" si="5">INT(OR(AND(NOT(J21),K21),AND(NOT(K21),E21)))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="59">
+        <f t="shared" ref="N21:N28" si="6">INT(AND(NOT(E21),K21))</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="61">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="70">
+        <v>0</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="70">
+        <v>0</v>
+      </c>
+      <c r="E24" s="70">
+        <v>0</v>
+      </c>
+      <c r="F24" s="70">
+        <v>0</v>
+      </c>
+      <c r="G24" s="70">
+        <v>1</v>
+      </c>
+      <c r="H24" s="61">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="73"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="61">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="70">
+        <v>0</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="70">
+        <v>0</v>
+      </c>
+      <c r="E28" s="70">
+        <v>0</v>
+      </c>
+      <c r="F28" s="70">
+        <v>0</v>
+      </c>
+      <c r="G28" s="70">
+        <v>1</v>
+      </c>
+      <c r="H28" s="61">
+        <v>1</v>
+      </c>
+      <c r="I28" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="73"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="56">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="67">
+        <v>0</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="67">
+        <v>1</v>
+      </c>
+      <c r="E29" s="67">
+        <v>0</v>
+      </c>
+      <c r="F29" s="67">
+        <v>0</v>
+      </c>
+      <c r="G29" s="67">
+        <v>0</v>
+      </c>
+      <c r="H29" s="56">
+        <v>0</v>
+      </c>
+      <c r="I29" s="57">
+        <f t="shared" ref="I29:I32" si="7">L29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="59">
+        <f t="shared" ref="J29:J32" si="8">IF(B29,0,IF(C29="↑",IF(G29,H29,INT(OR(AND(NOT(J28),K28),AND(J28,NOT(K28),D29)))),J28))</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="59">
+        <f t="shared" ref="K29:K32" si="9">IF(B29,0,IF(C29="↑",IF(G29,J28,INT(OR(AND(D29,NOT(K28),NOT(J28)),AND(NOT(D29),K28,NOT(J28))))),K28))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="57">
+        <f t="shared" ref="L29:L32" si="10">IF(B29,0,IF(C29="↑",IF(G29,K28,INT(IF(J28,AND(K28,F29),L28))),L28))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="59">
+        <f t="shared" ref="M29:M32" si="11">INT(OR(AND(NOT(J29),K29),AND(NOT(K29),E29)))</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="59">
+        <f t="shared" ref="N29:N32" si="12">INT(AND(NOT(E29),K29))</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="61">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="70">
+        <v>0</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="70">
+        <v>0</v>
+      </c>
+      <c r="E32" s="70">
+        <v>0</v>
+      </c>
+      <c r="F32" s="70">
+        <v>0</v>
+      </c>
+      <c r="G32" s="70">
+        <v>1</v>
+      </c>
+      <c r="H32" s="61">
+        <v>1</v>
+      </c>
+      <c r="I32" s="62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="65">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="65">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="62">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="65">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="73"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="56">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="67">
+        <v>0</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="67">
+        <v>0</v>
+      </c>
+      <c r="E33" s="67">
+        <v>0</v>
+      </c>
+      <c r="F33" s="67">
+        <v>0</v>
+      </c>
+      <c r="G33" s="67">
+        <v>0</v>
+      </c>
+      <c r="H33" s="56">
+        <v>0</v>
+      </c>
+      <c r="I33" s="57">
+        <f t="shared" ref="I33:I40" si="13">L33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="59">
+        <f t="shared" ref="J33:J40" si="14">IF(B33,0,IF(C33="↑",IF(G33,H33,INT(OR(AND(NOT(J32),K32),AND(J32,NOT(K32),D33)))),J32))</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="59">
+        <f t="shared" ref="K33:K40" si="15">IF(B33,0,IF(C33="↑",IF(G33,J32,INT(OR(AND(D33,NOT(K32),NOT(J32)),AND(NOT(D33),K32,NOT(J32))))),K32))</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="57">
+        <f t="shared" ref="L33:L40" si="16">IF(B33,0,IF(C33="↑",IF(G33,K32,INT(IF(J32,AND(K32,F33),L32))),L32))</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="59">
+        <f t="shared" ref="M33:M40" si="17">INT(OR(AND(NOT(J33),K33),AND(NOT(K33),E33)))</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="59">
+        <f t="shared" ref="N33:N40" si="18">INT(AND(NOT(E33),K33))</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <f>INT(OR(AND(NOT(F22),G22),AND(NOT(G22),D22)))</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="15">
-        <f>INT(AND(NOT(D22),G22))</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <f t="shared" ref="H23" si="4">INT(OR(AND(NOT(F23),G23),AND(NOT(G23),D23)))</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" ref="I23:I33" si="5">INT(AND(NOT(D23),G23))</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <f>INT(OR(AND(NOT(F24),G24),AND(NOT(G24),D24)))</f>
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
-        <f>INT(AND(NOT(D24),G24))</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <f>J23</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <f>INT(OR(AND(NOT(F25),G25),AND(NOT(G25),D25)))</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="15">
-        <f>INT(AND(NOT(D25),G25))</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15">
-        <f>INT(OR(AND(NOT(F26),G26),AND(NOT(G26),D26)))</f>
-        <v>1</v>
-      </c>
-      <c r="I26" s="15">
-        <f>INT(AND(NOT(D26),G26))</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <f>INT(IF(F25,AND(G25,E26),J25))</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="22" t="s">
+      <c r="B35" s="8">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="61">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="70">
+        <v>0</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="70">
+        <v>0</v>
+      </c>
+      <c r="E36" s="70">
+        <v>0</v>
+      </c>
+      <c r="F36" s="70">
+        <v>0</v>
+      </c>
+      <c r="G36" s="70">
+        <v>1</v>
+      </c>
+      <c r="H36" s="61">
+        <v>1</v>
+      </c>
+      <c r="I36" s="62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="65">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="65">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="65">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="65">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="73"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>0</v>
-      </c>
-      <c r="B27" s="34">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <f>C26</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <f>F26</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <f>G26</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="15">
-        <f>INT(OR(AND(NOT(F27),G27),AND(NOT(G27),D27)))</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="15">
-        <f>INT(AND(NOT(D27),G27))</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <f>J26</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="15">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15">
-        <f>INT(OR(AND(NOT(F28),G28),AND(NOT(G28),D28)))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="15">
-        <f>INT(AND(NOT(D28),G28))</f>
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <f>INT(IF(F26,AND(G26,E28),J26))</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="22" t="s">
+      <c r="B37" s="67">
+        <v>0</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="67">
+        <v>1</v>
+      </c>
+      <c r="E37" s="67">
+        <v>0</v>
+      </c>
+      <c r="F37" s="67">
+        <v>0</v>
+      </c>
+      <c r="G37" s="67">
+        <v>0</v>
+      </c>
+      <c r="H37" s="56">
+        <v>0</v>
+      </c>
+      <c r="I37" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="59">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="59">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="57">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="59">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <f>C28</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9">
-        <f>E28</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <f>F28</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <f>G28</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="15">
-        <f>INT(OR(AND(NOT(F29),G29),AND(NOT(G29),D29)))</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="15">
-        <f>INT(AND(NOT(D29),G29))</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <f>J28</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>0</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
-        <f>INT(OR(AND(NOT(F30),G30),AND(NOT(G30),D30)))</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="15">
-        <f>INT(AND(NOT(D30),G30))</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <f>INT(IF(F28,AND(G28,E30),J28))</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="22" t="s">
+      <c r="B38" s="8">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>0</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15">
-        <f>INT(OR(AND(NOT(F31),G31),AND(NOT(G31),D31)))</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="15">
-        <f>INT(AND(NOT(D31),G31))</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <f>INT(IF(F30,AND(G30,E31),J30))</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>0</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15">
-        <f>INT(OR(AND(NOT(F32),G32),AND(NOT(G32),D32)))</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="15">
-        <f>INT(AND(NOT(D32),G32))</f>
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <f>INT(IF(F31,AND(G31,E32),J31))</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15">
-        <f>INT(OR(AND(NOT(F33),G33),AND(NOT(G33),D33)))</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="15">
-        <f>INT(AND(NOT(D33),G33))</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <f>INT(IF(F32,AND(G32,E33),J32))</f>
-        <v>1</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>0</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="12">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
-        <v>1</v>
-      </c>
-      <c r="H34" s="15">
-        <f>INT(OR(AND(NOT(F34),G34),AND(NOT(G34),D34)))</f>
-        <v>1</v>
-      </c>
-      <c r="I34" s="15">
-        <f>INT(AND(NOT(D34),G34))</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <f>INT(IF(F33,AND(G33,E34),J33))</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>0</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="12">
-        <v>1</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
-        <f>INT(OR(AND(NOT(F35),G35),AND(NOT(G35),D35)))</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="15">
-        <f>INT(AND(NOT(D35),G35))</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <f>INT(IF(F34,AND(G34,E35),J34))</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>0</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1</v>
-      </c>
-      <c r="F36" s="12">
-        <v>1</v>
-      </c>
-      <c r="G36" s="15">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
-        <f>INT(OR(AND(NOT(F36),G36),AND(NOT(G36),D36)))</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="15">
-        <f>INT(AND(NOT(D36),G36))</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <f>INT(IF(F35,AND(G35,E36),J35))</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="22" t="s">
+      <c r="B39" s="8">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="8">
-        <f>C36</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <f>E36</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <f>F36</f>
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <f>G36</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
-        <f>INT(OR(AND(NOT(F37),G37),AND(NOT(G37),D37)))</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="15">
-        <f>INT(AND(NOT(D37),G37))</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <f>J36</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>0</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="8">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
-        <f>INT(OR(AND(NOT(F38),G38),AND(NOT(G38),D38)))</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="15">
-        <f>INT(AND(NOT(D38),G38))</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <f>INT(IF(F36,AND(G36,E38),J36))</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="B40" s="8">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/C4/Data.xlsx
+++ b/C4/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="68">
   <si>
     <t>A</t>
   </si>
@@ -579,25 +579,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -716,6 +697,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1180,25 +1180,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="11" t="s">
         <v>19</v>
       </c>
@@ -1496,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,31 +2011,31 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="32" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="33"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="73"/>
       <c r="I20" s="21" t="s">
         <v>19</v>
       </c>
@@ -2572,28 +2572,152 @@
       <c r="B38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="8">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
         <v>0</v>
       </c>
       <c r="E38" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G38:G42" si="6">INT(OR(AND(NOT(E38),F38),AND(NOT(F38),D38)))</f>
         <v>0</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H38:H42" si="7">INT(AND(NOT(D38),F38))</f>
         <v>0</v>
       </c>
       <c r="I38" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>0</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="22" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>0</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2644,14 +2768,14 @@
       <c r="J1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -2683,13 +2807,13 @@
       <c r="J2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -2861,29 +2985,29 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="21" t="s">
         <v>19</v>
       </c>
@@ -3857,35 +3981,35 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="32" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="33"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="21" t="s">
         <v>19</v>
       </c>
@@ -4604,42 +4728,42 @@
     <col min="21" max="23" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4657,19 +4781,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="16">
-        <f>INT(OR(AND(NOT(C2),D2),AND(C2,NOT(D2),A2)))</f>
+        <f t="shared" ref="E2:E17" si="0">INT(OR(AND(NOT(C2),D2),AND(C2,NOT(D2),A2)))</f>
         <v>0</v>
       </c>
       <c r="F2" s="17">
-        <f>INT(OR(AND(A2,NOT(D2),NOT(C2)),AND(NOT(A2),D2,NOT(C2))))</f>
+        <f t="shared" ref="F2:F17" si="1">INT(OR(AND(A2,NOT(D2),NOT(C2)),AND(NOT(A2),D2,NOT(C2))))</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>INT(OR(AND(NOT(C2),D2),AND(NOT(D2),B2)))</f>
+        <f t="shared" ref="G2:G17" si="2">INT(OR(AND(NOT(C2),D2),AND(NOT(D2),B2)))</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>INT(AND(NOT(B2),D2))</f>
+        <f t="shared" ref="H2:H17" si="3">INT(AND(NOT(B2),D2))</f>
         <v>0</v>
       </c>
       <c r="I2" s="25"/>
@@ -4700,19 +4824,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="12">
-        <f>INT(OR(AND(NOT(C3),D3),AND(C3,NOT(D3),A3)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f>INT(OR(AND(A3,NOT(D3),NOT(C3)),AND(NOT(A3),D3,NOT(C3))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>INT(OR(AND(NOT(C3),D3),AND(NOT(D3),B3)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <f>INT(AND(NOT(B3),D3))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I3" s="25"/>
@@ -4743,19 +4867,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="12">
-        <f>INT(OR(AND(NOT(C4),D4),AND(C4,NOT(D4),A4)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="15">
-        <f>INT(OR(AND(A4,NOT(D4),NOT(C4)),AND(NOT(A4),D4,NOT(C4))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f>INT(OR(AND(NOT(C4),D4),AND(NOT(D4),B4)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>INT(AND(NOT(B4),D4))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I4" s="25"/>
@@ -4786,19 +4910,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="12">
-        <f>INT(OR(AND(NOT(C5),D5),AND(C5,NOT(D5),A5)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="15">
-        <f>INT(OR(AND(A5,NOT(D5),NOT(C5)),AND(NOT(A5),D5,NOT(C5))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <f>INT(OR(AND(NOT(C5),D5),AND(NOT(D5),B5)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f>INT(AND(NOT(B5),D5))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="25"/>
@@ -4829,19 +4953,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="12">
-        <f>INT(OR(AND(NOT(C6),D6),AND(C6,NOT(D6),A6)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="15">
-        <f>INT(OR(AND(A6,NOT(D6),NOT(C6)),AND(NOT(A6),D6,NOT(C6))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f>INT(OR(AND(NOT(C6),D6),AND(NOT(D6),B6)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <f>INT(AND(NOT(B6),D6))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I6" s="25"/>
@@ -4864,19 +4988,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="12">
-        <f>INT(OR(AND(NOT(C7),D7),AND(C7,NOT(D7),A7)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="15">
-        <f>INT(OR(AND(A7,NOT(D7),NOT(C7)),AND(NOT(A7),D7,NOT(C7))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <f>INT(OR(AND(NOT(C7),D7),AND(NOT(D7),B7)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <f>INT(AND(NOT(B7),D7))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="25"/>
@@ -4899,19 +5023,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="12">
-        <f>INT(OR(AND(NOT(C8),D8),AND(C8,NOT(D8),A8)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="15">
-        <f>INT(OR(AND(A8,NOT(D8),NOT(C8)),AND(NOT(A8),D8,NOT(C8))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f>INT(OR(AND(NOT(C8),D8),AND(NOT(D8),B8)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <f>INT(AND(NOT(B8),D8))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I8" s="25"/>
@@ -4934,19 +5058,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="12">
-        <f>INT(OR(AND(NOT(C9),D9),AND(C9,NOT(D9),A9)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9" s="15">
-        <f>INT(OR(AND(A9,NOT(D9),NOT(C9)),AND(NOT(A9),D9,NOT(C9))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f>INT(OR(AND(NOT(C9),D9),AND(NOT(D9),B9)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <f>INT(AND(NOT(B9),D9))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="25"/>
@@ -4969,19 +5093,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="12">
-        <f>INT(OR(AND(NOT(C10),D10),AND(C10,NOT(D10),A10)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="15">
-        <f>INT(OR(AND(A10,NOT(D10),NOT(C10)),AND(NOT(A10),D10,NOT(C10))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f>INT(OR(AND(NOT(C10),D10),AND(NOT(D10),B10)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f>INT(AND(NOT(B10),D10))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="25"/>
@@ -5004,19 +5128,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="12">
-        <f>INT(OR(AND(NOT(C11),D11),AND(C11,NOT(D11),A11)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="15">
-        <f>INT(OR(AND(A11,NOT(D11),NOT(C11)),AND(NOT(A11),D11,NOT(C11))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f>INT(OR(AND(NOT(C11),D11),AND(NOT(D11),B11)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <f>INT(AND(NOT(B11),D11))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="25"/>
@@ -5039,19 +5163,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="12">
-        <f>INT(OR(AND(NOT(C12),D12),AND(C12,NOT(D12),A12)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="15">
-        <f>INT(OR(AND(A12,NOT(D12),NOT(C12)),AND(NOT(A12),D12,NOT(C12))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f>INT(OR(AND(NOT(C12),D12),AND(NOT(D12),B12)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>INT(AND(NOT(B12),D12))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12" s="25"/>
@@ -5074,19 +5198,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="12">
-        <f>INT(OR(AND(NOT(C13),D13),AND(C13,NOT(D13),A13)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="15">
-        <f>INT(OR(AND(A13,NOT(D13),NOT(C13)),AND(NOT(A13),D13,NOT(C13))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f>INT(OR(AND(NOT(C13),D13),AND(NOT(D13),B13)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <f>INT(AND(NOT(B13),D13))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13" s="25"/>
@@ -5109,19 +5233,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="12">
-        <f>INT(OR(AND(NOT(C14),D14),AND(C14,NOT(D14),A14)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <f>INT(OR(AND(A14,NOT(D14),NOT(C14)),AND(NOT(A14),D14,NOT(C14))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f>INT(OR(AND(NOT(C14),D14),AND(NOT(D14),B14)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f>INT(AND(NOT(B14),D14))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I14" s="25"/>
@@ -5144,19 +5268,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="12">
-        <f>INT(OR(AND(NOT(C15),D15),AND(C15,NOT(D15),A15)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="15">
-        <f>INT(OR(AND(A15,NOT(D15),NOT(C15)),AND(NOT(A15),D15,NOT(C15))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f>INT(OR(AND(NOT(C15),D15),AND(NOT(D15),B15)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f>INT(AND(NOT(B15),D15))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="25"/>
@@ -5179,19 +5303,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="12">
-        <f>INT(OR(AND(NOT(C16),D16),AND(C16,NOT(D16),A16)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="15">
-        <f>INT(OR(AND(A16,NOT(D16),NOT(C16)),AND(NOT(A16),D16,NOT(C16))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <f>INT(OR(AND(NOT(C16),D16),AND(NOT(D16),B16)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <f>INT(AND(NOT(B16),D16))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I16" s="25"/>
@@ -5214,19 +5338,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="19">
-        <f>INT(OR(AND(NOT(C17),D17),AND(C17,NOT(D17),A17)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="10">
-        <f>INT(OR(AND(A17,NOT(D17),NOT(C17)),AND(NOT(A17),D17,NOT(C17))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f>INT(OR(AND(NOT(C17),D17),AND(NOT(D17),B17)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <f>INT(AND(NOT(B17),D17))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17" s="25"/>
@@ -5250,9 +5374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O2"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,93 +5384,93 @@
     <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="75" t="s">
+      <c r="D1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="76" t="s">
+      <c r="J1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="O1" s="70" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="32" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="33"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="21" t="s">
         <v>19</v>
       </c>
@@ -5394,120 +5518,120 @@
       <c r="N4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
-        <v>1</v>
-      </c>
-      <c r="B5" s="52">
-        <v>1</v>
-      </c>
-      <c r="C5" s="52">
-        <v>0</v>
-      </c>
-      <c r="D5" s="52">
-        <v>0</v>
-      </c>
-      <c r="E5" s="52">
-        <v>0</v>
-      </c>
-      <c r="F5" s="52">
-        <v>0</v>
-      </c>
-      <c r="G5" s="52">
-        <v>0</v>
-      </c>
-      <c r="H5" s="53">
-        <v>0</v>
-      </c>
-      <c r="I5" s="52">
-        <f>L5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="54">
-        <f>IF(B5,0,IF(C5="↑",IF(G5,H5,INT(OR(AND(NOT(J4),K4),AND(J4,NOT(K4),D5)))),J4))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="54">
-        <f>IF(B5,0,IF(C5="↑",IF(G5,J4,INT(OR(AND(D5,NOT(K4),NOT(J4)),AND(NOT(D5),K4,NOT(J4))))),K4))</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="52">
-        <f>IF(B5,0,IF(C5="↑",IF(G5,K4,INT(IF(J4,AND(K4,F5),L4))),L4))</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="54">
-        <f>INT(OR(AND(NOT(J5),K5),AND(NOT(K5),E5)))</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="54">
-        <f>INT(AND(NOT(E5),K5))</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="55" t="s">
+      <c r="A5" s="44">
+        <v>1</v>
+      </c>
+      <c r="B5" s="45">
+        <v>1</v>
+      </c>
+      <c r="C5" s="45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <v>0</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <f t="shared" ref="I5:I20" si="0">L5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="47">
+        <f t="shared" ref="J5:J20" si="1">IF(B5,0,IF(C5="↑",IF(G5,H5,INT(OR(AND(NOT(J4),K4),AND(J4,NOT(K4),D5)))),J4))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="47">
+        <f t="shared" ref="K5:K20" si="2">IF(B5,0,IF(C5="↑",IF(G5,J4,INT(OR(AND(D5,NOT(K4),NOT(J4)),AND(NOT(D5),K4,NOT(J4))))),K4))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="45">
+        <f t="shared" ref="L5:L20" si="3">IF(B5,0,IF(C5="↑",IF(G5,K4,INT(IF(J4,AND(K4,F5),L4))),L4))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="47">
+        <f t="shared" ref="M5:M20" si="4">INT(OR(AND(NOT(J5),K5),AND(NOT(K5),E5)))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="47">
+        <f t="shared" ref="N5:N20" si="5">INT(AND(NOT(E5),K5))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="49">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="57">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57">
-        <v>0</v>
-      </c>
-      <c r="D6" s="57">
-        <v>0</v>
-      </c>
-      <c r="E6" s="57">
-        <v>0</v>
-      </c>
-      <c r="F6" s="57">
-        <v>0</v>
-      </c>
-      <c r="G6" s="57">
-        <v>0</v>
-      </c>
-      <c r="H6" s="58">
-        <v>0</v>
-      </c>
-      <c r="I6" s="57">
-        <f>L6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="59">
-        <f>IF(B6,0,IF(C6="↑",IF(G6,H6,INT(OR(AND(NOT(J5),K5),AND(J5,NOT(K5),D6)))),J5))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="59">
-        <f>IF(B6,0,IF(C6="↑",IF(G6,J5,INT(OR(AND(D6,NOT(K5),NOT(J5)),AND(NOT(D6),K5,NOT(J5))))),K5))</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="57">
-        <f>IF(B6,0,IF(C6="↑",IF(G6,K5,INT(IF(J5,AND(K5,F6),L5))),L5))</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="59">
-        <f>INT(OR(AND(NOT(J6),K6),AND(NOT(K6),E6)))</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="59">
-        <f>INT(AND(NOT(E6),K6))</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="60" t="s">
+      <c r="B6" s="50">
+        <v>0</v>
+      </c>
+      <c r="C6" s="50">
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
+        <v>0</v>
+      </c>
+      <c r="G6" s="50">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <f t="shared" ref="A7:A40" si="0">A6+1</f>
+        <f t="shared" ref="A7:A40" si="6">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="5">
@@ -5532,786 +5656,786 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f>L7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <f>IF(B7,0,IF(C7="↑",IF(G7,H7,INT(OR(AND(NOT(J6),K6),AND(J6,NOT(K6),D7)))),J6))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="15">
-        <f>IF(B7,0,IF(C7="↑",IF(G7,J6,INT(OR(AND(D7,NOT(K6),NOT(J6)),AND(NOT(D7),K6,NOT(J6))))),K6))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <f>IF(B7,0,IF(C7="↑",IF(G7,K6,INT(IF(J6,AND(K6,F7),L6))),L6))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7" s="15">
-        <f>INT(OR(AND(NOT(J7),K7),AND(NOT(K7),E7)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7" s="15">
-        <f>INT(AND(NOT(E7),K7))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="40" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="A8" s="54">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="55">
+        <v>0</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0</v>
+      </c>
+      <c r="E8" s="55">
+        <v>0</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0</v>
+      </c>
+      <c r="G8" s="55">
+        <v>1</v>
+      </c>
+      <c r="H8" s="57">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="62">
-        <v>0</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="62">
-        <v>0</v>
-      </c>
-      <c r="E8" s="62">
-        <v>0</v>
-      </c>
-      <c r="F8" s="62">
-        <v>0</v>
-      </c>
-      <c r="G8" s="62">
-        <v>1</v>
-      </c>
-      <c r="H8" s="64">
-        <v>0</v>
-      </c>
-      <c r="I8" s="62">
-        <f>L8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="65">
-        <f>IF(B8,0,IF(C8="↑",IF(G8,H8,INT(OR(AND(NOT(J7),K7),AND(J7,NOT(K7),D8)))),J7))</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="65">
-        <f>IF(B8,0,IF(C8="↑",IF(G8,J7,INT(OR(AND(D8,NOT(K7),NOT(J7)),AND(NOT(D8),K7,NOT(J7))))),K7))</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="62">
-        <f>IF(B8,0,IF(C8="↑",IF(G8,K7,INT(IF(J7,AND(K7,F8),L7))),L7))</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="65">
-        <f>INT(OR(AND(NOT(J8),K8),AND(NOT(K8),E8)))</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="65">
-        <f>INT(AND(NOT(E8),K8))</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="59" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="49">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="60">
+        <v>0</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0</v>
+      </c>
+      <c r="E9" s="60">
+        <v>0</v>
+      </c>
+      <c r="F9" s="60">
+        <v>0</v>
+      </c>
+      <c r="G9" s="60">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="50">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="67">
-        <v>0</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="67">
-        <v>0</v>
-      </c>
-      <c r="E9" s="67">
-        <v>0</v>
-      </c>
-      <c r="F9" s="67">
-        <v>0</v>
-      </c>
-      <c r="G9" s="67">
-        <v>0</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0</v>
-      </c>
-      <c r="I9" s="57">
-        <f>L9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="59">
-        <f>IF(B9,0,IF(C9="↑",IF(G9,H9,INT(OR(AND(NOT(J8),K8),AND(J8,NOT(K8),D9)))),J8))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="59">
-        <f>IF(B9,0,IF(C9="↑",IF(G9,J8,INT(OR(AND(D9,NOT(K8),NOT(J8)),AND(NOT(D9),K8,NOT(J8))))),K8))</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="57">
-        <f>IF(B9,0,IF(C9="↑",IF(G9,K8,INT(IF(J8,AND(K8,F9),L8))),L8))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="59">
-        <f>INT(OR(AND(NOT(J9),K9),AND(NOT(K9),E9)))</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="59">
-        <f>INT(AND(NOT(E9),K9))</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f>L10</f>
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f>IF(B10,0,IF(C10="↑",IF(G10,H10,INT(OR(AND(NOT(J9),K9),AND(J9,NOT(K9),D10)))),J9))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <f>IF(B10,0,IF(C10="↑",IF(G10,J9,INT(OR(AND(D10,NOT(K9),NOT(J9)),AND(NOT(D10),K9,NOT(J9))))),K9))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f>IF(B10,0,IF(C10="↑",IF(G10,K9,INT(IF(J9,AND(K9,F10),L9))),L9))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="15">
-        <f>INT(OR(AND(NOT(J10),K10),AND(NOT(K10),E10)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10" s="15">
-        <f>INT(AND(NOT(E10),K10))</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="49" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="30">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <f>L11</f>
         <v>0</v>
       </c>
       <c r="J11" s="15">
-        <f>IF(B11,0,IF(C11="↑",IF(G11,H11,INT(OR(AND(NOT(J10),K10),AND(J10,NOT(K10),D11)))),J10))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="15">
-        <f>IF(B11,0,IF(C11="↑",IF(G11,J10,INT(OR(AND(D11,NOT(K10),NOT(J10)),AND(NOT(D11),K10,NOT(J10))))),K10))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <f>IF(B11,0,IF(C11="↑",IF(G11,K10,INT(IF(J10,AND(K10,F11),L10))),L10))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="15">
-        <f>INT(OR(AND(NOT(J11),K11),AND(NOT(K11),E11)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="15">
-        <f>INT(AND(NOT(E11),K11))</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="49" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
+      <c r="A12" s="54">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="63">
+        <v>0</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="63">
+        <v>0</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0</v>
+      </c>
+      <c r="F12" s="63">
+        <v>0</v>
+      </c>
+      <c r="G12" s="63">
+        <v>1</v>
+      </c>
+      <c r="H12" s="54">
+        <v>0</v>
+      </c>
+      <c r="I12" s="55">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="70">
-        <v>0</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="70">
-        <v>0</v>
-      </c>
-      <c r="E12" s="62">
-        <v>0</v>
-      </c>
-      <c r="F12" s="70">
-        <v>0</v>
-      </c>
-      <c r="G12" s="70">
-        <v>1</v>
-      </c>
-      <c r="H12" s="61">
-        <v>0</v>
-      </c>
-      <c r="I12" s="62">
-        <f>L12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="65">
-        <f>IF(B12,0,IF(C12="↑",IF(G12,H12,INT(OR(AND(NOT(J11),K11),AND(J11,NOT(K11),D12)))),J11))</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="65">
-        <f>IF(B12,0,IF(C12="↑",IF(G12,J11,INT(OR(AND(D12,NOT(K11),NOT(J11)),AND(NOT(D12),K11,NOT(J11))))),K11))</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="62">
-        <f>IF(B12,0,IF(C12="↑",IF(G12,K11,INT(IF(J11,AND(K11,F12),L11))),L11))</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="65">
-        <f>INT(OR(AND(NOT(J12),K12),AND(NOT(K12),E12)))</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="65">
-        <f>INT(AND(NOT(E12),K12))</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="71"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="64"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f>L13</f>
         <v>0</v>
       </c>
       <c r="J13" s="15">
-        <f>IF(B13,0,IF(C13="↑",IF(G13,H13,INT(OR(AND(NOT(J12),K12),AND(J12,NOT(K12),D13)))),J12))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <f>IF(B13,0,IF(C13="↑",IF(G13,J12,INT(OR(AND(D13,NOT(K12),NOT(J12)),AND(NOT(D13),K12,NOT(J12))))),K12))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L13" s="5">
-        <f>IF(B13,0,IF(C13="↑",IF(G13,K12,INT(IF(J12,AND(K12,F13),L12))),L12))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="15">
-        <f>INT(OR(AND(NOT(J13),K13),AND(NOT(K13),E13)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N13" s="15">
-        <f>INT(AND(NOT(E13),K13))</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="39" t="s">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f>L14</f>
         <v>1</v>
       </c>
       <c r="J14" s="15">
-        <f>IF(B14,0,IF(C14="↑",IF(G14,H14,INT(OR(AND(NOT(J13),K13),AND(J13,NOT(K13),D14)))),J13))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <f>IF(B14,0,IF(C14="↑",IF(G14,J13,INT(OR(AND(D14,NOT(K13),NOT(J13)),AND(NOT(D14),K13,NOT(J13))))),K13))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f>IF(B14,0,IF(C14="↑",IF(G14,K13,INT(IF(J13,AND(K13,F14),L13))),L13))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M14" s="15">
-        <f>INT(OR(AND(NOT(J14),K14),AND(NOT(K14),E14)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N14" s="15">
-        <f>INT(AND(NOT(E14),K14))</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="39" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <f>L15</f>
         <v>0</v>
       </c>
       <c r="J15" s="15">
-        <f>IF(B15,0,IF(C15="↑",IF(G15,H15,INT(OR(AND(NOT(J14),K14),AND(J14,NOT(K14),D15)))),J14))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K15" s="15">
-        <f>IF(B15,0,IF(C15="↑",IF(G15,J14,INT(OR(AND(D15,NOT(K14),NOT(J14)),AND(NOT(D15),K14,NOT(J14))))),K14))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <f>IF(B15,0,IF(C15="↑",IF(G15,K14,INT(IF(J14,AND(K14,F15),L14))),L14))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="15">
-        <f>INT(OR(AND(NOT(J15),K15),AND(NOT(K15),E15)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15" s="15">
-        <f>INT(AND(NOT(E15),K15))</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="39" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="61">
+      <c r="A16" s="54">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="63">
+        <v>0</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="63">
+        <v>0</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="63">
+        <v>0</v>
+      </c>
+      <c r="G16" s="63">
+        <v>1</v>
+      </c>
+      <c r="H16" s="54">
+        <v>0</v>
+      </c>
+      <c r="I16" s="55">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="70">
-        <v>0</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="70">
-        <v>0</v>
-      </c>
-      <c r="E16" s="62">
-        <v>0</v>
-      </c>
-      <c r="F16" s="70">
-        <v>0</v>
-      </c>
-      <c r="G16" s="70">
-        <v>1</v>
-      </c>
-      <c r="H16" s="61">
-        <v>0</v>
-      </c>
-      <c r="I16" s="62">
-        <f>L16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="65">
-        <f>IF(B16,0,IF(C16="↑",IF(G16,H16,INT(OR(AND(NOT(J15),K15),AND(J15,NOT(K15),D16)))),J15))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="65">
-        <f>IF(B16,0,IF(C16="↑",IF(G16,J15,INT(OR(AND(D16,NOT(K15),NOT(J15)),AND(NOT(D16),K15,NOT(J15))))),K15))</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="62">
-        <f>IF(B16,0,IF(C16="↑",IF(G16,K15,INT(IF(J15,AND(K15,F16),L15))),L15))</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="65">
-        <f>INT(OR(AND(NOT(J16),K16),AND(NOT(K16),E16)))</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="65">
-        <f>INT(AND(NOT(E16),K16))</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="58">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="59"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <f>L17</f>
         <v>0</v>
       </c>
       <c r="J17" s="15">
-        <f>IF(B17,0,IF(C17="↑",IF(G17,H17,INT(OR(AND(NOT(J16),K16),AND(J16,NOT(K16),D17)))),J16))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K17" s="15">
-        <f>IF(B17,0,IF(C17="↑",IF(G17,J16,INT(OR(AND(D17,NOT(K16),NOT(J16)),AND(NOT(D17),K16,NOT(J16))))),K16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <f>IF(B17,0,IF(C17="↑",IF(G17,K16,INT(IF(J16,AND(K16,F17),L16))),L16))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17" s="15">
-        <f>INT(OR(AND(NOT(J17),K17),AND(NOT(K17),E17)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="15">
-        <f>INT(AND(NOT(E17),K17))</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="39" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f>L18</f>
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f>IF(B18,0,IF(C18="↑",IF(G18,H18,INT(OR(AND(NOT(J17),K17),AND(J17,NOT(K17),D18)))),J17))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <f>IF(B18,0,IF(C18="↑",IF(G18,J17,INT(OR(AND(D18,NOT(K17),NOT(J17)),AND(NOT(D18),K17,NOT(J17))))),K17))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L18" s="5">
-        <f>IF(B18,0,IF(C18="↑",IF(G18,K17,INT(IF(J17,AND(K17,F18),L17))),L17))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18" s="15">
-        <f>INT(OR(AND(NOT(J18),K18),AND(NOT(K18),E18)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N18" s="15">
-        <f>INT(AND(NOT(E18),K18))</f>
-        <v>1</v>
-      </c>
-      <c r="O18" s="39" t="s">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <f>L19</f>
         <v>1</v>
       </c>
       <c r="J19" s="15">
-        <f>IF(B19,0,IF(C19="↑",IF(G19,H19,INT(OR(AND(NOT(J18),K18),AND(J18,NOT(K18),D19)))),J18))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K19" s="15">
-        <f>IF(B19,0,IF(C19="↑",IF(G19,J18,INT(OR(AND(D19,NOT(K18),NOT(J18)),AND(NOT(D19),K18,NOT(J18))))),K18))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <f>IF(B19,0,IF(C19="↑",IF(G19,K18,INT(IF(J18,AND(K18,F19),L18))),L18))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M19" s="15">
-        <f>INT(OR(AND(NOT(J19),K19),AND(NOT(K19),E19)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="15">
-        <f>INT(AND(NOT(E19),K19))</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="39" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="64">
+      <c r="A20" s="57">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="63">
+        <v>0</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="63">
+        <v>0</v>
+      </c>
+      <c r="E20" s="55">
+        <v>0</v>
+      </c>
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55">
+        <v>1</v>
+      </c>
+      <c r="H20" s="57">
+        <v>0</v>
+      </c>
+      <c r="I20" s="55">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="70">
-        <v>0</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="70">
-        <v>0</v>
-      </c>
-      <c r="E20" s="62">
-        <v>0</v>
-      </c>
-      <c r="F20" s="62">
-        <v>0</v>
-      </c>
-      <c r="G20" s="62">
-        <v>1</v>
-      </c>
-      <c r="H20" s="64">
-        <v>0</v>
-      </c>
-      <c r="I20" s="62">
-        <f>L20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="65">
-        <f>IF(B20,0,IF(C20="↑",IF(G20,H20,INT(OR(AND(NOT(J19),K19),AND(J19,NOT(K19),D20)))),J19))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="65">
-        <f>IF(B20,0,IF(C20="↑",IF(G20,J19,INT(OR(AND(D20,NOT(K19),NOT(J19)),AND(NOT(D20),K19,NOT(J19))))),K19))</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="62">
-        <f>IF(B20,0,IF(C20="↑",IF(G20,K19,INT(IF(J19,AND(K19,F20),L19))),L19))</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="65">
-        <f>INT(OR(AND(NOT(J20),K20),AND(NOT(K20),E20)))</f>
-        <v>1</v>
-      </c>
-      <c r="N20" s="65">
-        <f>INT(AND(NOT(E20),K20))</f>
-        <v>1</v>
-      </c>
-      <c r="O20" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="58">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="59"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
-        <f t="shared" si="0"/>
+      <c r="A21" s="49">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="B21" s="67">
-        <v>0</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="67">
-        <v>0</v>
-      </c>
-      <c r="E21" s="67">
-        <v>0</v>
-      </c>
-      <c r="F21" s="67">
-        <v>0</v>
-      </c>
-      <c r="G21" s="67">
-        <v>0</v>
-      </c>
-      <c r="H21" s="56">
-        <v>0</v>
-      </c>
-      <c r="I21" s="57">
-        <f t="shared" ref="I21:I28" si="1">L21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="59">
-        <f t="shared" ref="J21:J28" si="2">IF(B21,0,IF(C21="↑",IF(G21,H21,INT(OR(AND(NOT(J20),K20),AND(J20,NOT(K20),D21)))),J20))</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="59">
-        <f t="shared" ref="K21:K28" si="3">IF(B21,0,IF(C21="↑",IF(G21,J20,INT(OR(AND(D21,NOT(K20),NOT(J20)),AND(NOT(D21),K20,NOT(J20))))),K20))</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="57">
-        <f t="shared" ref="L21:L28" si="4">IF(B21,0,IF(C21="↑",IF(G21,K20,INT(IF(J20,AND(K20,F21),L20))),L20))</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="59">
-        <f t="shared" ref="M21:M28" si="5">INT(OR(AND(NOT(J21),K21),AND(NOT(K21),E21)))</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="59">
-        <f t="shared" ref="N21:N28" si="6">INT(AND(NOT(E21),K21))</f>
-        <v>1</v>
-      </c>
-      <c r="O21" s="72" t="s">
+      <c r="B21" s="60">
+        <v>0</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="60">
+        <v>0</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0</v>
+      </c>
+      <c r="F21" s="60">
+        <v>0</v>
+      </c>
+      <c r="G21" s="60">
+        <v>0</v>
+      </c>
+      <c r="H21" s="49">
+        <v>0</v>
+      </c>
+      <c r="I21" s="50">
+        <f t="shared" ref="I21:I28" si="7">L21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="52">
+        <f t="shared" ref="J21:J28" si="8">IF(B21,0,IF(C21="↑",IF(G21,H21,INT(OR(AND(NOT(J20),K20),AND(J20,NOT(K20),D21)))),J20))</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="52">
+        <f t="shared" ref="K21:K28" si="9">IF(B21,0,IF(C21="↑",IF(G21,J20,INT(OR(AND(D21,NOT(K20),NOT(J20)),AND(NOT(D21),K20,NOT(J20))))),K20))</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="50">
+        <f t="shared" ref="L21:L28" si="10">IF(B21,0,IF(C21="↑",IF(G21,K20,INT(IF(J20,AND(K20,F21),L20))),L20))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="52">
+        <f t="shared" ref="M21:M28" si="11">INT(OR(AND(NOT(J21),K21),AND(NOT(K21),E21)))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="52">
+        <f t="shared" ref="N21:N28" si="12">INT(AND(NOT(E21),K21))</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="65" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B22" s="8">
@@ -6336,36 +6460,36 @@
         <v>0</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N22" s="15">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="40" t="s">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B23" s="8">
@@ -6390,94 +6514,94 @@
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N23" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="61">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="70">
-        <v>0</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="70">
-        <v>0</v>
-      </c>
-      <c r="E24" s="70">
-        <v>0</v>
-      </c>
-      <c r="F24" s="70">
-        <v>0</v>
-      </c>
-      <c r="G24" s="70">
-        <v>1</v>
-      </c>
-      <c r="H24" s="61">
-        <v>1</v>
-      </c>
-      <c r="I24" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="65">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="62">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="73"/>
+      <c r="B24" s="63">
+        <v>0</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="63">
+        <v>0</v>
+      </c>
+      <c r="E24" s="63">
+        <v>0</v>
+      </c>
+      <c r="F24" s="63">
+        <v>0</v>
+      </c>
+      <c r="G24" s="63">
+        <v>1</v>
+      </c>
+      <c r="H24" s="54">
+        <v>1</v>
+      </c>
+      <c r="I24" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="58">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="55">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="66"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B25" s="8">
         <v>0</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="61" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8">
@@ -6496,36 +6620,36 @@
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M25" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="40" t="s">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B26" s="8">
@@ -6550,36 +6674,36 @@
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="40" t="s">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B27" s="8">
@@ -6604,142 +6728,142 @@
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N27" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="54">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="61">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="70">
-        <v>0</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="70">
-        <v>0</v>
-      </c>
-      <c r="E28" s="70">
-        <v>0</v>
-      </c>
-      <c r="F28" s="70">
-        <v>0</v>
-      </c>
-      <c r="G28" s="70">
-        <v>1</v>
-      </c>
-      <c r="H28" s="61">
-        <v>1</v>
-      </c>
-      <c r="I28" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="65">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="62">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="65">
+      <c r="B28" s="63">
+        <v>0</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="63">
+        <v>0</v>
+      </c>
+      <c r="E28" s="63">
+        <v>0</v>
+      </c>
+      <c r="F28" s="63">
+        <v>0</v>
+      </c>
+      <c r="G28" s="63">
+        <v>1</v>
+      </c>
+      <c r="H28" s="54">
+        <v>1</v>
+      </c>
+      <c r="I28" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="58">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="55">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="66"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="49">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="73"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="67">
-        <v>0</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="67">
-        <v>1</v>
-      </c>
-      <c r="E29" s="67">
-        <v>0</v>
-      </c>
-      <c r="F29" s="67">
-        <v>0</v>
-      </c>
-      <c r="G29" s="67">
-        <v>0</v>
-      </c>
-      <c r="H29" s="56">
-        <v>0</v>
-      </c>
-      <c r="I29" s="57">
-        <f t="shared" ref="I29:I32" si="7">L29</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="59">
-        <f t="shared" ref="J29:J32" si="8">IF(B29,0,IF(C29="↑",IF(G29,H29,INT(OR(AND(NOT(J28),K28),AND(J28,NOT(K28),D29)))),J28))</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="59">
-        <f t="shared" ref="K29:K32" si="9">IF(B29,0,IF(C29="↑",IF(G29,J28,INT(OR(AND(D29,NOT(K28),NOT(J28)),AND(NOT(D29),K28,NOT(J28))))),K28))</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="57">
-        <f t="shared" ref="L29:L32" si="10">IF(B29,0,IF(C29="↑",IF(G29,K28,INT(IF(J28,AND(K28,F29),L28))),L28))</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="59">
-        <f t="shared" ref="M29:M32" si="11">INT(OR(AND(NOT(J29),K29),AND(NOT(K29),E29)))</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="59">
-        <f t="shared" ref="N29:N32" si="12">INT(AND(NOT(E29),K29))</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="72" t="s">
+      <c r="B29" s="60">
+        <v>0</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="60">
+        <v>1</v>
+      </c>
+      <c r="E29" s="60">
+        <v>0</v>
+      </c>
+      <c r="F29" s="60">
+        <v>0</v>
+      </c>
+      <c r="G29" s="60">
+        <v>0</v>
+      </c>
+      <c r="H29" s="49">
+        <v>0</v>
+      </c>
+      <c r="I29" s="50">
+        <f t="shared" ref="I29:I32" si="13">L29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="52">
+        <f t="shared" ref="J29:J32" si="14">IF(B29,0,IF(C29="↑",IF(G29,H29,INT(OR(AND(NOT(J28),K28),AND(J28,NOT(K28),D29)))),J28))</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="52">
+        <f t="shared" ref="K29:K32" si="15">IF(B29,0,IF(C29="↑",IF(G29,J28,INT(OR(AND(D29,NOT(K28),NOT(J28)),AND(NOT(D29),K28,NOT(J28))))),K28))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="50">
+        <f t="shared" ref="L29:L32" si="16">IF(B29,0,IF(C29="↑",IF(G29,K28,INT(IF(J28,AND(K28,F29),L28))),L28))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="52">
+        <f t="shared" ref="M29:M32" si="17">INT(OR(AND(NOT(J29),K29),AND(NOT(K29),E29)))</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="52">
+        <f t="shared" ref="N29:N32" si="18">INT(AND(NOT(E29),K29))</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="65" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B30" s="8">
@@ -6764,36 +6888,36 @@
         <v>0</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="40" t="s">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B31" s="8">
@@ -6818,142 +6942,142 @@
         <v>1</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="40" t="s">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="61">
-        <f t="shared" si="0"/>
+      <c r="A32" s="54">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="B32" s="70">
-        <v>0</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="70">
-        <v>0</v>
-      </c>
-      <c r="E32" s="70">
-        <v>0</v>
-      </c>
-      <c r="F32" s="70">
-        <v>0</v>
-      </c>
-      <c r="G32" s="70">
-        <v>1</v>
-      </c>
-      <c r="H32" s="61">
-        <v>1</v>
-      </c>
-      <c r="I32" s="62">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="65">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="65">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L32" s="62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="65">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="73"/>
+      <c r="B32" s="63">
+        <v>0</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="63">
+        <v>0</v>
+      </c>
+      <c r="E32" s="63">
+        <v>0</v>
+      </c>
+      <c r="F32" s="63">
+        <v>0</v>
+      </c>
+      <c r="G32" s="63">
+        <v>1</v>
+      </c>
+      <c r="H32" s="54">
+        <v>1</v>
+      </c>
+      <c r="I32" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="58">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="58">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="55">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="58">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="58">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="66"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
-        <f t="shared" si="0"/>
+      <c r="A33" s="49">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="B33" s="67">
-        <v>0</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="67">
-        <v>0</v>
-      </c>
-      <c r="E33" s="67">
-        <v>0</v>
-      </c>
-      <c r="F33" s="67">
-        <v>0</v>
-      </c>
-      <c r="G33" s="67">
-        <v>0</v>
-      </c>
-      <c r="H33" s="56">
-        <v>0</v>
-      </c>
-      <c r="I33" s="57">
-        <f t="shared" ref="I33:I40" si="13">L33</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="59">
-        <f t="shared" ref="J33:J40" si="14">IF(B33,0,IF(C33="↑",IF(G33,H33,INT(OR(AND(NOT(J32),K32),AND(J32,NOT(K32),D33)))),J32))</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="59">
-        <f t="shared" ref="K33:K40" si="15">IF(B33,0,IF(C33="↑",IF(G33,J32,INT(OR(AND(D33,NOT(K32),NOT(J32)),AND(NOT(D33),K32,NOT(J32))))),K32))</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="57">
-        <f t="shared" ref="L33:L40" si="16">IF(B33,0,IF(C33="↑",IF(G33,K32,INT(IF(J32,AND(K32,F33),L32))),L32))</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="59">
-        <f t="shared" ref="M33:M40" si="17">INT(OR(AND(NOT(J33),K33),AND(NOT(K33),E33)))</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="59">
-        <f t="shared" ref="N33:N40" si="18">INT(AND(NOT(E33),K33))</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="72" t="s">
+      <c r="B33" s="60">
+        <v>0</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="60">
+        <v>0</v>
+      </c>
+      <c r="E33" s="60">
+        <v>0</v>
+      </c>
+      <c r="F33" s="60">
+        <v>0</v>
+      </c>
+      <c r="G33" s="60">
+        <v>0</v>
+      </c>
+      <c r="H33" s="49">
+        <v>0</v>
+      </c>
+      <c r="I33" s="50">
+        <f t="shared" ref="I33:I40" si="19">L33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="52">
+        <f t="shared" ref="J33:J40" si="20">IF(B33,0,IF(C33="↑",IF(G33,H33,INT(OR(AND(NOT(J32),K32),AND(J32,NOT(K32),D33)))),J32))</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="52">
+        <f t="shared" ref="K33:K40" si="21">IF(B33,0,IF(C33="↑",IF(G33,J32,INT(OR(AND(D33,NOT(K32),NOT(J32)),AND(NOT(D33),K32,NOT(J32))))),K32))</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="50">
+        <f t="shared" ref="L33:L40" si="22">IF(B33,0,IF(C33="↑",IF(G33,K32,INT(IF(J32,AND(K32,F33),L32))),L32))</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="52">
+        <f t="shared" ref="M33:M40" si="23">INT(OR(AND(NOT(J33),K33),AND(NOT(K33),E33)))</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="52">
+        <f t="shared" ref="N33:N40" si="24">INT(AND(NOT(E33),K33))</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B34" s="8">
@@ -6978,36 +7102,36 @@
         <v>0</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="40" t="s">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="B35" s="8">
@@ -7032,142 +7156,142 @@
         <v>1</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J35" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="40" t="s">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="61">
-        <f t="shared" si="0"/>
+      <c r="A36" s="54">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="B36" s="70">
-        <v>0</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="70">
-        <v>0</v>
-      </c>
-      <c r="E36" s="70">
-        <v>0</v>
-      </c>
-      <c r="F36" s="70">
-        <v>0</v>
-      </c>
-      <c r="G36" s="70">
-        <v>1</v>
-      </c>
-      <c r="H36" s="61">
-        <v>1</v>
-      </c>
-      <c r="I36" s="62">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="65">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K36" s="65">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="65">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="65">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="O36" s="73"/>
+      <c r="B36" s="63">
+        <v>0</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="63">
+        <v>0</v>
+      </c>
+      <c r="E36" s="63">
+        <v>0</v>
+      </c>
+      <c r="F36" s="63">
+        <v>0</v>
+      </c>
+      <c r="G36" s="63">
+        <v>1</v>
+      </c>
+      <c r="H36" s="54">
+        <v>1</v>
+      </c>
+      <c r="I36" s="55">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="58">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="58">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="55">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="58">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="58">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="66"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="B37" s="67">
-        <v>0</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="67">
-        <v>1</v>
-      </c>
-      <c r="E37" s="67">
-        <v>0</v>
-      </c>
-      <c r="F37" s="67">
-        <v>0</v>
-      </c>
-      <c r="G37" s="67">
-        <v>0</v>
-      </c>
-      <c r="H37" s="56">
-        <v>0</v>
-      </c>
-      <c r="I37" s="57">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="59">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="59">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="57">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="59">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="59">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="72" t="s">
+      <c r="B37" s="60">
+        <v>0</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="60">
+        <v>1</v>
+      </c>
+      <c r="E37" s="60">
+        <v>0</v>
+      </c>
+      <c r="F37" s="60">
+        <v>0</v>
+      </c>
+      <c r="G37" s="60">
+        <v>0</v>
+      </c>
+      <c r="H37" s="49">
+        <v>0</v>
+      </c>
+      <c r="I37" s="50">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="52">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="52">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="50">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="52">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="52">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="B38" s="8">
@@ -7192,36 +7316,36 @@
         <v>0</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K38" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N38" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="40" t="s">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="B39" s="8">
@@ -7246,36 +7370,36 @@
         <v>0</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="40" t="s">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="B40" s="8">
@@ -7300,30 +7424,30 @@
         <v>0</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J40" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="40"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/C4/Data.xlsx
+++ b/C4/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="73">
   <si>
     <t>A</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>T'</t>
-  </si>
-  <si>
-    <t>Test sequence</t>
   </si>
   <si>
     <t>Inputs</t>
@@ -208,9 +205,6 @@
     <t>State 10 -&gt; 00, N</t>
   </si>
   <si>
-    <t>Test sequence, SDI -&gt; S -&gt; T -&gt; N -&gt; SDO</t>
-  </si>
-  <si>
     <t>State 10 -&gt; 00, T</t>
   </si>
   <si>
@@ -234,12 +228,33 @@
   <si>
     <t>State 11 -&gt; 00, S</t>
   </si>
+  <si>
+    <t>Q5 Test sequence</t>
+  </si>
+  <si>
+    <t>Q3 Test sequence</t>
+  </si>
+  <si>
+    <t>Q6 Test sequence</t>
+  </si>
+  <si>
+    <t>Q6+ Test sequence</t>
+  </si>
+  <si>
+    <t>11 -&gt; 00, N &lt;- 0</t>
+  </si>
+  <si>
+    <t>11 -&gt; 00, N &lt;- 1</t>
+  </si>
+  <si>
+    <t>Q7 Test sequence, SDI -&gt; T -&gt; S -&gt; N -&gt; SDO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +271,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,11 +511,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,6 +603,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -715,10 +752,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1000,7 +1088,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,35 +1268,35 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="73"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="78"/>
       <c r="F12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>0</v>
@@ -1220,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -1280,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -1300,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
@@ -1320,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
@@ -1340,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
@@ -1360,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9">
         <v>0</v>
@@ -1380,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1388,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
@@ -1400,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1408,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -1420,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1428,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -1440,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -1460,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1468,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9">
         <v>0</v>
@@ -1480,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1496,20 +1584,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:I42"/>
+    <sheetView topLeftCell="A16" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1524,13 +1612,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1559,8 +1656,17 @@
         <f t="shared" ref="H2:H17" si="3">INT(AND(NOT(B2),D2))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1589,8 +1695,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1619,8 +1734,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1649,8 +1773,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -1679,8 +1812,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>0</v>
       </c>
@@ -1709,8 +1851,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1739,8 +1890,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1769,8 +1929,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0</v>
       </c>
@@ -1799,8 +1968,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>0</v>
       </c>
@@ -1829,8 +2007,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -1859,8 +2046,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -1889,8 +2085,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>0</v>
       </c>
@@ -1919,8 +2124,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1949,8 +2163,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -1979,8 +2202,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -2009,49 +2241,87 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>1</v>
@@ -2060,47 +2330,65 @@
         <v>2</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="I21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:G37" si="4">INT(OR(AND(NOT(E22),F22),AND(NOT(F22),D22)))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:H37" si="5">INT(AND(NOT(D22),F22))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" ref="G22:G38" si="4">INT(OR(AND(NOT(E22),F22),AND(NOT(F22),D22)))</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <f t="shared" ref="H22:H38" si="5">INT(AND(NOT(D22),F22))</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0</v>
       </c>
@@ -2128,10 +2416,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -2159,15 +2456,24 @@
         <v>0</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -2190,15 +2496,15 @@
         <v>0</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -2221,10 +2527,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>0</v>
       </c>
@@ -2252,15 +2558,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
@@ -2283,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>0</v>
       </c>
@@ -2314,15 +2620,15 @@
         <v>0</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="8">
         <v>0</v>
@@ -2345,15 +2651,15 @@
         <v>0</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -2376,15 +2682,15 @@
         <v>1</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="8">
         <v>0</v>
@@ -2407,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2415,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -2438,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2446,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -2469,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -2500,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -2531,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2562,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2570,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -2593,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2624,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2632,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="8">
         <v>0</v>
@@ -2655,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2686,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2694,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -2717,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2732,15 +3038,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.140625" style="100"/>
+    <col min="16" max="16" width="9.140625" style="89" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="100"/>
+    <col min="18" max="20" width="9.140625" style="89" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="100"/>
+    <col min="24" max="25" width="0" style="89" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +3072,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>1</v>
@@ -2766,18 +3081,27 @@
         <v>2</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2796,26 +3120,42 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2840,13 +3180,58 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -2865,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -2876,8 +3261,59 @@
       <c r="J4" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="92">
+        <v>0</v>
+      </c>
+      <c r="S4" s="87">
+        <v>0</v>
+      </c>
+      <c r="T4" s="99">
+        <f t="shared" ref="T4:T6" si="2">W4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4:U6" si="3">IF(M4,0,IF(N4="↑",IF(R4,S4,INT(OR(AND(NOT(U3),V3),AND(U3,NOT(V3),O4)))),U3))</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" ref="V4:V6" si="4">IF(M4,0,IF(N4="↑",IF(R4,U3,INT(OR(AND(O4,NOT(V3),NOT(U3)),AND(NOT(O4),V3,NOT(U3))))),V3))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <f t="shared" ref="W4:W6" si="5">IF(M4,0,IF(N4="↑",IF(R4,V3,INT(IF(U3,AND(V3,Q4),W3))),W3))</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="92">
+        <f t="shared" ref="X4:X6" si="6">INT(OR(AND(NOT(U4),V4),AND(NOT(V4),P4)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="87">
+        <f t="shared" ref="Y4:Y6" si="7">INT(AND(NOT(P4),V4))</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2907,8 +3343,60 @@
       <c r="J5" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="6">
+        <f>L4+1</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="92">
+        <v>0</v>
+      </c>
+      <c r="S5" s="88">
+        <v>0</v>
+      </c>
+      <c r="T5" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" ref="U5:U28" si="8">IF(M5,0,IF(N5="↑",IF(R5,S5,INT(OR(AND(NOT(U4),V4),AND(U4,NOT(V4),O5)))),U4))</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" ref="V5:V28" si="9">IF(M5,0,IF(N5="↑",IF(R5,U4,INT(OR(AND(O5,NOT(V4),NOT(U4)),AND(NOT(O5),V4,NOT(U4))))),V4))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" ref="W5:W28" si="10">IF(M5,0,IF(N5="↑",IF(R5,V4,INT(IF(U4,AND(V4,Q5),W4))),W4))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -2926,8 +3414,60 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L6" s="6">
+        <f t="shared" ref="L6:L29" si="11">L5+1</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="92">
+        <v>0</v>
+      </c>
+      <c r="S6" s="88">
+        <v>0</v>
+      </c>
+      <c r="T6" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="94">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="95">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -2945,8 +3485,60 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L7" s="6">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="96">
+        <v>0</v>
+      </c>
+      <c r="S7" s="88">
+        <v>0</v>
+      </c>
+      <c r="T7" s="99">
+        <f t="shared" ref="T7:T22" si="12">W7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="92">
+        <f t="shared" ref="X7:X22" si="13">INT(OR(AND(NOT(U7),V7),AND(NOT(V7),P7)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="88">
+        <f t="shared" ref="Y7:Y22" si="14">INT(AND(NOT(P7),V7))</f>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -2964,8 +3556,60 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L8" s="6">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="92">
+        <v>0</v>
+      </c>
+      <c r="S8" s="88">
+        <v>0</v>
+      </c>
+      <c r="T8" s="99">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="95">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -2983,417 +3627,1065 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="L9" s="6">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="21" t="s">
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="92">
+        <v>0</v>
+      </c>
+      <c r="S9" s="88">
+        <v>0</v>
+      </c>
+      <c r="T9" s="99">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X9" s="92">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="88">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L10" s="6">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="96">
+        <v>0</v>
+      </c>
+      <c r="S10" s="88">
+        <v>0</v>
+      </c>
+      <c r="T10" s="99">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="95">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="L11" s="6">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="92">
+        <v>0</v>
+      </c>
+      <c r="S11" s="88">
+        <v>0</v>
+      </c>
+      <c r="T11" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="88">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="L12" s="6">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="92">
+        <v>0</v>
+      </c>
+      <c r="S12" s="88">
+        <v>0</v>
+      </c>
+      <c r="T12" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="95">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="L13" s="6">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1</v>
+      </c>
+      <c r="R13" s="96">
+        <v>0</v>
+      </c>
+      <c r="S13" s="88">
+        <v>0</v>
+      </c>
+      <c r="T13" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="88">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="19" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="L14" s="6">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="92">
+        <v>0</v>
+      </c>
+      <c r="S14" s="88">
+        <v>0</v>
+      </c>
+      <c r="T14" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="94">
+        <f>INT(OR(AND(NOT(U14),V14),AND(NOT(V14),P15)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="95">
+        <f>INT(AND(NOT(P15),V14))</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="84" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="L15" s="6">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="92">
+        <v>0</v>
+      </c>
+      <c r="S15" s="88">
+        <v>0</v>
+      </c>
+      <c r="T15" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="92">
+        <f>INT(OR(AND(NOT(U15),V15),AND(NOT(V15),P16)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="88">
+        <f>INT(AND(NOT(P16),V15))</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="L16" s="6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="P16" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="96">
+        <v>0</v>
+      </c>
+      <c r="S16" s="88">
+        <v>0</v>
+      </c>
+      <c r="T16" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="94">
+        <f>INT(OR(AND(NOT(U16),V16),AND(NOT(V16),P17)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="95">
+        <f>INT(AND(NOT(P17),V16))</f>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="L17" s="6">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>1</v>
+      </c>
+      <c r="R17" s="92">
+        <v>0</v>
+      </c>
+      <c r="S17" s="88">
+        <v>0</v>
+      </c>
+      <c r="T17" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="92">
+        <f>INT(OR(AND(NOT(U17),V17),AND(NOT(V17),P18)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="88">
+        <f>INT(AND(NOT(P18),V17))</f>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="L18" s="6">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="92">
+        <v>0</v>
+      </c>
+      <c r="S18" s="88">
+        <v>0</v>
+      </c>
+      <c r="T18" s="99">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X18" s="94">
+        <f>INT(OR(AND(NOT(U18),V18),AND(NOT(V18),P19)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="95">
+        <f>INT(AND(NOT(P19),V18))</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="L19" s="6">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="96">
+        <v>0</v>
+      </c>
+      <c r="S19" s="88">
+        <v>0</v>
+      </c>
+      <c r="T19" s="99">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="92">
+        <f>INT(OR(AND(NOT(U19),V19),AND(NOT(V19),P20)))</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="88">
+        <f>INT(AND(NOT(P20),V19))</f>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="L20" s="6">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>1</v>
+      </c>
+      <c r="R20" s="92">
+        <v>0</v>
+      </c>
+      <c r="S20" s="88">
+        <v>0</v>
+      </c>
+      <c r="T20" s="99">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="94">
+        <f>INT(OR(AND(NOT(U20),V20),AND(NOT(V20),P21)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="95">
+        <f>INT(AND(NOT(P21),V20))</f>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="L21" s="6">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="92"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="L22" s="6">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="96"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="L23" s="6">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="L24" s="6">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>1</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="L25" s="6">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="L26" s="6">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>1</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L27" s="6">
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <f>INT(IF(E16,AND(F16,D17),G16))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" ref="G18:G26" si="2">INT(IF(E17,AND(F17,D18),G17))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>0</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="22" t="s">
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>1</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W27" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H21" s="22" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L28" s="6">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>1</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="84" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>0</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>0</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12">
-        <v>1</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>20</v>
-      </c>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G12"/>
+  <mergeCells count="3">
+    <mergeCell ref="L1:Z1"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="T2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3404,7 +4696,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3418,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3433,14 +4725,14 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>1</v>
@@ -3449,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3482,16 +4774,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3530,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="22">
         <v>0</v>
@@ -3981,54 +5273,54 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="73"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="78"/>
       <c r="K20" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>1</v>
@@ -4037,16 +5329,16 @@
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="J21" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4083,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4120,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4158,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4166,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -4195,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4203,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -4233,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4274,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4282,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
@@ -4312,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4362,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="8">
         <v>0</v>
@@ -4392,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4400,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -4430,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4438,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="8">
         <v>0</v>
@@ -4468,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4476,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -4506,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4514,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -4544,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4552,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -4582,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4590,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -4620,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -4662,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4670,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="8">
         <v>0</v>
@@ -4700,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4728,43 +6020,43 @@
     <col min="21" max="23" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="35" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="38" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>29</v>
+      <c r="M1" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4798,16 +6090,16 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4847,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="22">
         <v>0</v>
@@ -5361,7 +6653,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5374,9 +6666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5384,124 +6676,124 @@
     <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:15" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="68" t="s">
+      <c r="B3" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="73"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="78"/>
       <c r="O3" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>1</v>
@@ -5510,135 +6802,135 @@
         <v>2</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="49">
+        <v>1</v>
+      </c>
+      <c r="B5" s="50">
+        <v>1</v>
+      </c>
+      <c r="C5" s="50">
+        <v>0</v>
+      </c>
+      <c r="D5" s="50">
+        <v>0</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0</v>
+      </c>
+      <c r="G5" s="50">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <f t="shared" ref="I5:I20" si="0">L5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="52">
+        <f>IF(B5,0,IF(C5="↑",IF(G5,K4,INT(OR(AND(NOT(J4),K4),AND(J4,NOT(K4),D5)))),J4))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="52">
+        <f>IF(B5,0,IF(C5="↑",IF(G5,H5,INT(OR(AND(D5,NOT(K4),NOT(J4)),AND(NOT(D5),K4,NOT(J4))))),K4))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="50">
+        <f>IF(B5,0,IF(C5="↑",IF(G5,J4,INT(IF(J4,AND(K4,F5),L4))),L4))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="52">
+        <f t="shared" ref="M5:M20" si="1">INT(OR(AND(NOT(J5),K5),AND(NOT(K5),E5)))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="52">
+        <f t="shared" ref="N5:N20" si="2">INT(AND(NOT(E5),K5))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
-        <v>1</v>
-      </c>
-      <c r="B5" s="45">
-        <v>1</v>
-      </c>
-      <c r="C5" s="45">
-        <v>0</v>
-      </c>
-      <c r="D5" s="45">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
-        <v>0</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0</v>
-      </c>
-      <c r="G5" s="45">
-        <v>0</v>
-      </c>
-      <c r="H5" s="46">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
-        <f t="shared" ref="I5:I20" si="0">L5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="47">
-        <f t="shared" ref="J5:J20" si="1">IF(B5,0,IF(C5="↑",IF(G5,H5,INT(OR(AND(NOT(J4),K4),AND(J4,NOT(K4),D5)))),J4))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="47">
-        <f t="shared" ref="K5:K20" si="2">IF(B5,0,IF(C5="↑",IF(G5,J4,INT(OR(AND(D5,NOT(K4),NOT(J4)),AND(NOT(D5),K4,NOT(J4))))),K4))</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="45">
-        <f t="shared" ref="L5:L20" si="3">IF(B5,0,IF(C5="↑",IF(G5,K4,INT(IF(J4,AND(K4,F5),L4))),L4))</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="47">
-        <f t="shared" ref="M5:M20" si="4">INT(OR(AND(NOT(J5),K5),AND(NOT(K5),E5)))</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="47">
-        <f t="shared" ref="N5:N20" si="5">INT(AND(NOT(E5),K5))</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="54">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="50">
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
-        <v>0</v>
-      </c>
-      <c r="D6" s="50">
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <v>0</v>
-      </c>
-      <c r="F6" s="50">
-        <v>0</v>
-      </c>
-      <c r="G6" s="50">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51">
-        <v>0</v>
-      </c>
-      <c r="I6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>43</v>
+      <c r="B6" s="55">
+        <v>0</v>
+      </c>
+      <c r="C6" s="55">
+        <v>0</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56">
+        <v>0</v>
+      </c>
+      <c r="I6" s="55">
+        <f t="shared" ref="I6:I40" si="3">L6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="57">
+        <f t="shared" ref="J6:J40" si="4">IF(B6,0,IF(C6="↑",IF(G6,K5,INT(OR(AND(NOT(J5),K5),AND(J5,NOT(K5),D6)))),J5))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="57">
+        <f t="shared" ref="K6:K40" si="5">IF(B6,0,IF(C6="↑",IF(G6,H6,INT(OR(AND(D6,NOT(K5),NOT(J5)),AND(NOT(D6),K5,NOT(J5))))),K5))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="55">
+        <f t="shared" ref="L6:L40" si="6">IF(B6,0,IF(C6="↑",IF(G6,J5,INT(IF(J5,AND(K5,F6),L5))),L5))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="57">
+        <f t="shared" ref="M6:M40" si="7">INT(OR(AND(NOT(J6),K6),AND(NOT(K6),E6)))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="57">
+        <f t="shared" ref="N6:N40" si="8">INT(AND(NOT(E6),K6))</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <f t="shared" ref="A7:A40" si="6">A6+1</f>
+        <f t="shared" ref="A7:A40" si="9">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -5656,1798 +6948,1798 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L7" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="60">
+        <v>0</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="60">
+        <v>0</v>
+      </c>
+      <c r="E8" s="60">
+        <v>0</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0</v>
+      </c>
+      <c r="G8" s="60">
+        <v>1</v>
+      </c>
+      <c r="H8" s="62">
+        <v>0</v>
+      </c>
+      <c r="I8" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="15">
+      <c r="J8" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N7" s="15">
+      <c r="K8" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O7" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="L8" s="60">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="55">
-        <v>0</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="55">
-        <v>0</v>
-      </c>
-      <c r="E8" s="55">
-        <v>0</v>
-      </c>
-      <c r="F8" s="55">
-        <v>0</v>
-      </c>
-      <c r="G8" s="55">
-        <v>1</v>
-      </c>
-      <c r="H8" s="57">
-        <v>0</v>
-      </c>
-      <c r="I8" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="55">
+        <v>0</v>
+      </c>
+      <c r="M8" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="65">
+        <v>0</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="65">
+        <v>0</v>
+      </c>
+      <c r="E9" s="65">
+        <v>0</v>
+      </c>
+      <c r="F9" s="65">
+        <v>0</v>
+      </c>
+      <c r="G9" s="65">
+        <v>0</v>
+      </c>
+      <c r="H9" s="54">
+        <v>0</v>
+      </c>
+      <c r="I9" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="58">
+      <c r="J9" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N8" s="58">
+      <c r="K9" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="59" t="s">
+      <c r="L9" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="67" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="60">
-        <v>0</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="60">
-        <v>0</v>
-      </c>
-      <c r="E9" s="60">
-        <v>0</v>
-      </c>
-      <c r="F9" s="60">
-        <v>0</v>
-      </c>
-      <c r="G9" s="60">
-        <v>0</v>
-      </c>
-      <c r="H9" s="49">
-        <v>0</v>
-      </c>
-      <c r="I9" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="62" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N10" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="42" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="30">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="59">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="68">
+        <v>0</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="68">
+        <v>0</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0</v>
+      </c>
+      <c r="F12" s="68">
+        <v>0</v>
+      </c>
+      <c r="G12" s="68">
+        <v>1</v>
+      </c>
+      <c r="H12" s="59">
+        <v>0</v>
+      </c>
+      <c r="I12" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="15">
+      <c r="J12" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N11" s="15">
+      <c r="K12" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="L12" s="60">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="63">
-        <v>0</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="63">
-        <v>0</v>
-      </c>
-      <c r="E12" s="55">
-        <v>0</v>
-      </c>
-      <c r="F12" s="63">
-        <v>0</v>
-      </c>
-      <c r="G12" s="63">
-        <v>1</v>
-      </c>
-      <c r="H12" s="54">
-        <v>0</v>
-      </c>
-      <c r="I12" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="32" t="s">
-        <v>49</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N14" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="32" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="59">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="68">
+        <v>0</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="68">
+        <v>0</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0</v>
+      </c>
+      <c r="F16" s="68">
+        <v>0</v>
+      </c>
+      <c r="G16" s="68">
+        <v>1</v>
+      </c>
+      <c r="H16" s="59">
+        <v>1</v>
+      </c>
+      <c r="I16" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="15">
+      <c r="J16" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="15">
+      <c r="K16" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+        <v>1</v>
+      </c>
+      <c r="L16" s="60">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="63">
-        <v>0</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="63">
-        <v>0</v>
-      </c>
-      <c r="E16" s="55">
-        <v>0</v>
-      </c>
-      <c r="F16" s="63">
-        <v>0</v>
-      </c>
-      <c r="G16" s="63">
-        <v>1</v>
-      </c>
-      <c r="H16" s="54">
-        <v>0</v>
-      </c>
-      <c r="I16" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="58">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L16" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="58">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="58">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="63">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="63">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="64"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N17" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>52</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="N18" s="15">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="32" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="68">
+        <v>0</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="68">
+        <v>0</v>
+      </c>
+      <c r="E20" s="60">
+        <v>0</v>
+      </c>
+      <c r="F20" s="60">
+        <v>0</v>
+      </c>
+      <c r="G20" s="60">
+        <v>1</v>
+      </c>
+      <c r="H20" s="62">
+        <v>1</v>
+      </c>
+      <c r="I20" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="15">
+      <c r="K20" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="63">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="63">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="64"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="54">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="65">
+        <v>0</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="65">
+        <v>0</v>
+      </c>
+      <c r="E21" s="65">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65">
+        <v>0</v>
+      </c>
+      <c r="G21" s="65">
+        <v>0</v>
+      </c>
+      <c r="H21" s="54">
+        <v>0</v>
+      </c>
+      <c r="I21" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="57">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="57">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="57">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="70" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="57">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="63">
-        <v>0</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="63">
-        <v>0</v>
-      </c>
-      <c r="E20" s="55">
-        <v>0</v>
-      </c>
-      <c r="F20" s="55">
-        <v>0</v>
-      </c>
-      <c r="G20" s="55">
-        <v>1</v>
-      </c>
-      <c r="H20" s="57">
-        <v>0</v>
-      </c>
-      <c r="I20" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="58">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="58">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="58">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="59"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="60">
-        <v>0</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="60">
-        <v>0</v>
-      </c>
-      <c r="E21" s="60">
-        <v>0</v>
-      </c>
-      <c r="F21" s="60">
-        <v>0</v>
-      </c>
-      <c r="G21" s="60">
-        <v>0</v>
-      </c>
-      <c r="H21" s="49">
-        <v>0</v>
-      </c>
-      <c r="I21" s="50">
-        <f t="shared" ref="I21:I28" si="7">L21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="52">
-        <f t="shared" ref="J21:J28" si="8">IF(B21,0,IF(C21="↑",IF(G21,H21,INT(OR(AND(NOT(J20),K20),AND(J20,NOT(K20),D21)))),J20))</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="52">
-        <f t="shared" ref="K21:K28" si="9">IF(B21,0,IF(C21="↑",IF(G21,J20,INT(OR(AND(D21,NOT(K20),NOT(J20)),AND(NOT(D21),K20,NOT(J20))))),K20))</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="50">
-        <f t="shared" ref="L21:L28" si="10">IF(B21,0,IF(C21="↑",IF(G21,K20,INT(IF(J20,AND(K20,F21),L20))),L20))</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="52">
-        <f t="shared" ref="M21:M28" si="11">INT(OR(AND(NOT(J21),K21),AND(NOT(K21),E21)))</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="52">
-        <f t="shared" ref="N21:N28" si="12">INT(AND(NOT(E21),K21))</f>
-        <v>1</v>
-      </c>
-      <c r="O21" s="65" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J23" s="15">
+      <c r="N23" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+        <v>20</v>
+      </c>
+      <c r="B24" s="68">
+        <v>0</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="68">
+        <v>0</v>
+      </c>
+      <c r="E24" s="68">
+        <v>0</v>
+      </c>
+      <c r="F24" s="68">
+        <v>0</v>
+      </c>
+      <c r="G24" s="68">
+        <v>1</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0</v>
+      </c>
+      <c r="I24" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="60">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="63">
-        <v>0</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="63">
-        <v>0</v>
-      </c>
-      <c r="E24" s="63">
-        <v>0</v>
-      </c>
-      <c r="F24" s="63">
-        <v>0</v>
-      </c>
-      <c r="G24" s="63">
-        <v>1</v>
-      </c>
-      <c r="H24" s="54">
-        <v>1</v>
-      </c>
-      <c r="I24" s="55">
+        <v>0</v>
+      </c>
+      <c r="M24" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J24" s="58">
+      <c r="N24" s="63">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="58">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="71"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J25" s="15">
+      <c r="N25" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K25" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="33" t="s">
-        <v>58</v>
+      <c r="O25" s="38" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J26" s="15">
+      <c r="N26" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K26" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="33" t="s">
-        <v>60</v>
+      <c r="O26" s="38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="15">
+        <v>1</v>
+      </c>
+      <c r="N27" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
+        <v>1</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="54">
+        <v>24</v>
+      </c>
+      <c r="B28" s="68">
+        <v>0</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="68">
+        <v>0</v>
+      </c>
+      <c r="E28" s="68">
+        <v>0</v>
+      </c>
+      <c r="F28" s="68">
+        <v>0</v>
+      </c>
+      <c r="G28" s="68">
+        <v>1</v>
+      </c>
+      <c r="H28" s="59">
+        <v>0</v>
+      </c>
+      <c r="I28" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="60">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="63">
-        <v>0</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="63">
-        <v>0</v>
-      </c>
-      <c r="E28" s="63">
-        <v>0</v>
-      </c>
-      <c r="F28" s="63">
-        <v>0</v>
-      </c>
-      <c r="G28" s="63">
-        <v>1</v>
-      </c>
-      <c r="H28" s="54">
-        <v>1</v>
-      </c>
-      <c r="I28" s="55">
+        <v>0</v>
+      </c>
+      <c r="M28" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J28" s="58">
+      <c r="N28" s="63">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="58">
+        <v>0</v>
+      </c>
+      <c r="O28" s="71"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="54">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="58">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="66"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+        <v>25</v>
+      </c>
+      <c r="B29" s="65">
+        <v>0</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="65">
+        <v>1</v>
+      </c>
+      <c r="E29" s="65">
+        <v>0</v>
+      </c>
+      <c r="F29" s="65">
+        <v>0</v>
+      </c>
+      <c r="G29" s="65">
+        <v>0</v>
+      </c>
+      <c r="H29" s="54">
+        <v>0</v>
+      </c>
+      <c r="I29" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="57">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="55">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="60">
-        <v>0</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="60">
-        <v>1</v>
-      </c>
-      <c r="E29" s="60">
-        <v>0</v>
-      </c>
-      <c r="F29" s="60">
-        <v>0</v>
-      </c>
-      <c r="G29" s="60">
-        <v>0</v>
-      </c>
-      <c r="H29" s="49">
-        <v>0</v>
-      </c>
-      <c r="I29" s="50">
-        <f t="shared" ref="I29:I32" si="13">L29</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="52">
-        <f t="shared" ref="J29:J32" si="14">IF(B29,0,IF(C29="↑",IF(G29,H29,INT(OR(AND(NOT(J28),K28),AND(J28,NOT(K28),D29)))),J28))</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="52">
-        <f t="shared" ref="K29:K32" si="15">IF(B29,0,IF(C29="↑",IF(G29,J28,INT(OR(AND(D29,NOT(K28),NOT(J28)),AND(NOT(D29),K28,NOT(J28))))),K28))</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="50">
-        <f t="shared" ref="L29:L32" si="16">IF(B29,0,IF(C29="↑",IF(G29,K28,INT(IF(J28,AND(K28,F29),L28))),L28))</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="52">
-        <f t="shared" ref="M29:M32" si="17">INT(OR(AND(NOT(J29),K29),AND(NOT(K29),E29)))</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="52">
-        <f t="shared" ref="N29:N32" si="18">INT(AND(NOT(E29),K29))</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="65" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="M29" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="70" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>63</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="33" t="s">
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="54">
+      <c r="A32" s="59">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="68">
+        <v>0</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="68">
+        <v>0</v>
+      </c>
+      <c r="E32" s="68">
+        <v>0</v>
+      </c>
+      <c r="F32" s="68">
+        <v>0</v>
+      </c>
+      <c r="G32" s="68">
+        <v>1</v>
+      </c>
+      <c r="H32" s="59">
+        <v>1</v>
+      </c>
+      <c r="I32" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="60">
         <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="63">
-        <v>0</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="63">
-        <v>0</v>
-      </c>
-      <c r="E32" s="63">
-        <v>0</v>
-      </c>
-      <c r="F32" s="63">
-        <v>0</v>
-      </c>
-      <c r="G32" s="63">
-        <v>1</v>
-      </c>
-      <c r="H32" s="54">
-        <v>1</v>
-      </c>
-      <c r="I32" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="58">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L32" s="55">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="58">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="58">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="63">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="71"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="49">
+      <c r="A33" s="54">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="65">
+        <v>0</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="65">
+        <v>0</v>
+      </c>
+      <c r="E33" s="65">
+        <v>0</v>
+      </c>
+      <c r="F33" s="65">
+        <v>0</v>
+      </c>
+      <c r="G33" s="65">
+        <v>0</v>
+      </c>
+      <c r="H33" s="54">
+        <v>0</v>
+      </c>
+      <c r="I33" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="55">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="60">
-        <v>0</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="60">
-        <v>0</v>
-      </c>
-      <c r="E33" s="60">
-        <v>0</v>
-      </c>
-      <c r="F33" s="60">
-        <v>0</v>
-      </c>
-      <c r="G33" s="60">
-        <v>0</v>
-      </c>
-      <c r="H33" s="49">
-        <v>0</v>
-      </c>
-      <c r="I33" s="50">
-        <f t="shared" ref="I33:I40" si="19">L33</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="52">
-        <f t="shared" ref="J33:J40" si="20">IF(B33,0,IF(C33="↑",IF(G33,H33,INT(OR(AND(NOT(J32),K32),AND(J32,NOT(K32),D33)))),J32))</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="52">
-        <f t="shared" ref="K33:K40" si="21">IF(B33,0,IF(C33="↑",IF(G33,J32,INT(OR(AND(D33,NOT(K32),NOT(J32)),AND(NOT(D33),K32,NOT(J32))))),K32))</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="50">
-        <f t="shared" ref="L33:L40" si="22">IF(B33,0,IF(C33="↑",IF(G33,K32,INT(IF(J32,AND(K32,F33),L32))),L32))</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="52">
-        <f t="shared" ref="M33:M40" si="23">INT(OR(AND(NOT(J33),K33),AND(NOT(K33),E33)))</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="52">
-        <f t="shared" ref="N33:N40" si="24">INT(AND(NOT(E33),K33))</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="65" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="M33" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="70" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
         <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="8">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="33" t="s">
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="8">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="33" t="s">
-        <v>67</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
+      <c r="A36" s="59">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="68">
+        <v>0</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="68">
+        <v>0</v>
+      </c>
+      <c r="E36" s="68">
+        <v>0</v>
+      </c>
+      <c r="F36" s="68">
+        <v>0</v>
+      </c>
+      <c r="G36" s="68">
+        <v>1</v>
+      </c>
+      <c r="H36" s="59">
+        <v>1</v>
+      </c>
+      <c r="I36" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="60">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="63">
-        <v>0</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="63">
-        <v>0</v>
-      </c>
-      <c r="E36" s="63">
-        <v>0</v>
-      </c>
-      <c r="F36" s="63">
-        <v>0</v>
-      </c>
-      <c r="G36" s="63">
-        <v>1</v>
-      </c>
-      <c r="H36" s="54">
-        <v>1</v>
-      </c>
-      <c r="I36" s="55">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="58">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="K36" s="58">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="55">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="58">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="58">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="O36" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="63">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="71"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="65">
+        <v>0</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="65">
+        <v>1</v>
+      </c>
+      <c r="E37" s="65">
+        <v>0</v>
+      </c>
+      <c r="F37" s="65">
+        <v>0</v>
+      </c>
+      <c r="G37" s="65">
+        <v>0</v>
+      </c>
+      <c r="H37" s="54">
+        <v>0</v>
+      </c>
+      <c r="I37" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="55">
         <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="60">
-        <v>0</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="60">
-        <v>1</v>
-      </c>
-      <c r="E37" s="60">
-        <v>0</v>
-      </c>
-      <c r="F37" s="60">
-        <v>0</v>
-      </c>
-      <c r="G37" s="60">
-        <v>0</v>
-      </c>
-      <c r="H37" s="49">
-        <v>0</v>
-      </c>
-      <c r="I37" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="52">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="52">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="50">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="52">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="52">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="65" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="M37" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="70" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="8">
-        <v>0</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N38" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="33" t="s">
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="33" t="s">
-        <v>67</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="8">
-        <v>0</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="33"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
